--- a/ProjectCode_Testcase_Template_v2.2.xlsx
+++ b/ProjectCode_Testcase_Template_v2.2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\GitHub\PM-Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CCE750EC-C1CE-49F4-ABE0-38D49307F1E2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9101EF82-FCC8-45F7-975C-2729896988B2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="15480" windowHeight="4785" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="16" r:id="rId1"/>
@@ -337,7 +337,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="100">
   <si>
     <t>Online ID</t>
   </si>
@@ -345,12 +345,6 @@
     <t>Resp</t>
   </si>
   <si>
-    <t>23/08/2008</t>
-  </si>
-  <si>
-    <t>BUG21312</t>
-  </si>
-  <si>
     <t>Subtopic(abnormality)</t>
   </si>
   <si>
@@ -360,18 +354,12 @@
     <t>1.1-1</t>
   </si>
   <si>
-    <t>1.1-2</t>
-  </si>
-  <si>
     <t>1.</t>
   </si>
   <si>
     <t>1.2.1-1</t>
   </si>
   <si>
-    <t>1.2.2-2</t>
-  </si>
-  <si>
     <t>Test case Overview</t>
   </si>
   <si>
@@ -441,16 +429,10 @@
     <t>Not OK</t>
   </si>
   <si>
-    <t>TienND</t>
-  </si>
-  <si>
     <t>Test Date</t>
   </si>
   <si>
     <t>Repairer</t>
-  </si>
-  <si>
-    <t>AnhDV</t>
   </si>
   <si>
     <t>20/08/2008</t>
@@ -472,9 +454,6 @@
 </t>
   </si>
   <si>
-    <t>BUG213</t>
-  </si>
-  <si>
     <t>Tested and result is correct</t>
   </si>
   <si>
@@ -561,9 +540,6 @@
   </si>
   <si>
     <t>1.3.1-1</t>
-  </si>
-  <si>
-    <t>1.4.1-1</t>
   </si>
   <si>
     <t>1. Chụp một ảnh
@@ -622,6 +598,66 @@
   </si>
   <si>
     <t>Máy thông báo nhắc chụp ảnh để submit</t>
+  </si>
+  <si>
+    <t>1.11-2</t>
+  </si>
+  <si>
+    <t>1.10-2</t>
+  </si>
+  <si>
+    <t>1.9-2</t>
+  </si>
+  <si>
+    <t>1.8-2</t>
+  </si>
+  <si>
+    <t>1.7-2</t>
+  </si>
+  <si>
+    <t>1.6-2</t>
+  </si>
+  <si>
+    <t>1-5.2</t>
+  </si>
+  <si>
+    <t>1.4-1</t>
+  </si>
+  <si>
+    <t>TuHH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nhận tạp nham các loại file đều có thể submit được ??? :D </t>
+  </si>
+  <si>
+    <t>BUG699669</t>
+  </si>
+  <si>
+    <t>BUG699696</t>
+  </si>
+  <si>
+    <t>LinhNH</t>
+  </si>
+  <si>
+    <t>Nhận cả ảnh Photoshop ghép mặt con mèo vào</t>
+  </si>
+  <si>
+    <t>BUG21321</t>
+  </si>
+  <si>
+    <t>Vẫn cho đăng kí dù nhập thiếu thông tin</t>
+  </si>
+  <si>
+    <t>20/08/2018</t>
+  </si>
+  <si>
+    <t>BUG069096</t>
+  </si>
+  <si>
+    <t>HaiLT</t>
+  </si>
+  <si>
+    <t>Dịch vụ track vẫn tiếp tục trên Windows Phone</t>
   </si>
 </sst>
 </file>
@@ -1443,6 +1479,66 @@
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1452,92 +1548,32 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2054,7 +2090,7 @@
     </row>
     <row r="3" spans="1:24">
       <c r="A3" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B3" s="15"/>
       <c r="C3" s="5"/>
@@ -2136,7 +2172,7 @@
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
       <c r="O6" s="129" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="P6" s="129"/>
       <c r="Q6" s="129"/>
@@ -2170,10 +2206,10 @@
       <c r="B9" s="30"/>
       <c r="C9" s="18"/>
       <c r="D9" s="27" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
@@ -2184,7 +2220,7 @@
       <c r="B10" s="30"/>
       <c r="C10" s="18"/>
       <c r="D10" s="27" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
@@ -2194,7 +2230,7 @@
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
       <c r="L10" s="117" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="O10" s="21"/>
       <c r="P10" s="21"/>
@@ -2208,7 +2244,7 @@
       <c r="B11" s="30"/>
       <c r="C11" s="18"/>
       <c r="D11" s="31" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E11" s="130">
         <f ca="1">TODAY()</f>
@@ -2218,24 +2254,24 @@
       <c r="G11" s="130"/>
       <c r="H11" s="76"/>
       <c r="L11" s="33" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="M11" s="33"/>
       <c r="N11" s="33"/>
       <c r="O11" s="33" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="P11" s="33"/>
       <c r="Q11" s="33" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="R11" s="33"/>
       <c r="S11" s="33" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="T11" s="33"/>
       <c r="U11" s="33" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="V11" s="33"/>
       <c r="X11" s="19"/>
@@ -2243,7 +2279,7 @@
     <row r="12" spans="1:24">
       <c r="B12" s="30"/>
       <c r="L12" s="34" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M12" s="34"/>
       <c r="N12" s="34"/>
@@ -2321,7 +2357,7 @@
     <row r="15" spans="1:24">
       <c r="B15" s="30"/>
       <c r="D15" s="27" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E15" s="75"/>
       <c r="F15" s="75"/>
@@ -2452,7 +2488,7 @@
       <c r="G19" s="44"/>
       <c r="H19" s="44"/>
       <c r="L19" s="36" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M19" s="37"/>
       <c r="N19" s="37"/>
@@ -2504,7 +2540,7 @@
       <c r="B22" s="15"/>
       <c r="C22" s="4"/>
       <c r="D22" s="27" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E22" s="75"/>
       <c r="F22" s="75"/>
@@ -2531,7 +2567,7 @@
       <c r="G24" s="44"/>
       <c r="H24" s="44"/>
       <c r="L24" s="117" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="M24" s="107"/>
       <c r="N24" s="107"/>
@@ -2666,7 +2702,7 @@
     <row r="31" spans="2:35">
       <c r="B31" s="15"/>
       <c r="C31" s="39" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D31" s="18"/>
       <c r="E31" s="28"/>
@@ -2702,7 +2738,7 @@
     <row r="32" spans="2:35">
       <c r="B32" s="46"/>
       <c r="C32" s="40" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D32" s="18"/>
       <c r="E32" s="18"/>
@@ -2772,7 +2808,7 @@
     <row r="34" spans="1:35">
       <c r="B34" s="30"/>
       <c r="C34" s="39" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D34" s="18"/>
       <c r="E34" s="28"/>
@@ -2808,7 +2844,7 @@
     <row r="35" spans="1:35">
       <c r="B35" s="30"/>
       <c r="C35" s="40" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
@@ -3075,8 +3111,8 @@
   </sheetPr>
   <dimension ref="A1:K130"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21:G25"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -3090,36 +3126,36 @@
   <sheetData>
     <row r="1" spans="1:11" s="62" customFormat="1">
       <c r="A1" s="81" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B1" s="82" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C1" s="82"/>
       <c r="D1" s="82"/>
       <c r="E1" s="83"/>
       <c r="F1" s="83"/>
       <c r="G1" s="84" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H1" s="85" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I1" s="104">
         <f>COUNTIF(H1:H820,"OK")</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J1" s="86" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="K1" s="87"/>
     </row>
     <row r="2" spans="1:11" s="62" customFormat="1">
       <c r="A2" s="119" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B2" s="89" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C2" s="89"/>
       <c r="D2" s="89"/>
@@ -3127,23 +3163,23 @@
       <c r="F2" s="90"/>
       <c r="G2" s="91"/>
       <c r="H2" s="92" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="I2" s="105">
         <f>COUNTIF(H2:H821,"Not OK")</f>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J2" s="93" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="K2" s="94"/>
     </row>
     <row r="3" spans="1:11" s="62" customFormat="1" ht="11.25" customHeight="1">
       <c r="A3" s="88" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B3" s="89" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C3" s="89"/>
       <c r="D3" s="89"/>
@@ -3151,14 +3187,14 @@
       <c r="F3" s="90"/>
       <c r="G3" s="91"/>
       <c r="H3" s="92" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="I3" s="106">
         <f>COUNTIF(H2:H821,"Untested")</f>
         <v>0</v>
       </c>
       <c r="J3" s="93" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="K3" s="94"/>
     </row>
@@ -3170,7 +3206,7 @@
       <c r="E4" s="90"/>
       <c r="F4" s="90"/>
       <c r="G4" s="96" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H4" s="89"/>
       <c r="I4" s="105">
@@ -3208,46 +3244,46 @@
     </row>
     <row r="7" spans="1:11" ht="10.5" customHeight="1">
       <c r="A7" s="103" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="156" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="156"/>
-      <c r="D7" s="156"/>
-      <c r="E7" s="156"/>
-      <c r="F7" s="156"/>
-      <c r="G7" s="156"/>
-      <c r="H7" s="156"/>
-      <c r="I7" s="156"/>
-      <c r="J7" s="156"/>
-      <c r="K7" s="156"/>
+      <c r="B7" s="161" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="161"/>
+      <c r="D7" s="161"/>
+      <c r="E7" s="161"/>
+      <c r="F7" s="161"/>
+      <c r="G7" s="161"/>
+      <c r="H7" s="161"/>
+      <c r="I7" s="161"/>
+      <c r="J7" s="161"/>
+      <c r="K7" s="161"/>
     </row>
     <row r="8" spans="1:11" s="2" customFormat="1" ht="10.5" customHeight="1">
       <c r="A8" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="151" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="152"/>
+      <c r="D8" s="151" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="152"/>
+      <c r="F8" s="151" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="152"/>
+      <c r="H8" s="162" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="162"/>
+      <c r="J8" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="131" t="s">
+      <c r="K8" s="49" t="s">
         <v>25</v>
-      </c>
-      <c r="C8" s="132"/>
-      <c r="D8" s="131" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="132"/>
-      <c r="F8" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="132"/>
-      <c r="H8" s="157" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="157"/>
-      <c r="J8" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="49" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="10.5" customHeight="1">
@@ -3255,61 +3291,61 @@
         <v>1</v>
       </c>
       <c r="B9" s="134" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C9" s="135"/>
-      <c r="D9" s="143" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="144"/>
+      <c r="D9" s="140" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="141"/>
       <c r="F9" s="122" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="G9" s="123"/>
-      <c r="H9" s="149" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="150"/>
+      <c r="H9" s="146" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="147"/>
       <c r="J9" s="50"/>
-      <c r="K9" s="153"/>
+      <c r="K9" s="148"/>
     </row>
     <row r="10" spans="1:11" ht="10.5" customHeight="1">
       <c r="A10" s="47" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B10" s="136"/>
       <c r="C10" s="137"/>
-      <c r="D10" s="145"/>
-      <c r="E10" s="146"/>
+      <c r="D10" s="142"/>
+      <c r="E10" s="143"/>
       <c r="F10" s="124"/>
       <c r="G10" s="125"/>
       <c r="H10" s="47" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I10" s="47" t="s">
         <v>1</v>
       </c>
       <c r="J10" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="K10" s="154"/>
+        <v>31</v>
+      </c>
+      <c r="K10" s="149"/>
     </row>
     <row r="11" spans="1:11" ht="10.5" customHeight="1">
       <c r="A11" s="51" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B11" s="136"/>
       <c r="C11" s="137"/>
-      <c r="D11" s="145"/>
-      <c r="E11" s="146"/>
+      <c r="D11" s="142"/>
+      <c r="E11" s="143"/>
       <c r="F11" s="124"/>
       <c r="G11" s="125"/>
       <c r="H11" s="52" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="I11" s="52"/>
       <c r="J11" s="50"/>
-      <c r="K11" s="154"/>
+      <c r="K11" s="149"/>
     </row>
     <row r="12" spans="1:11" ht="10.5" customHeight="1">
       <c r="A12" s="47" t="s">
@@ -3317,61 +3353,61 @@
       </c>
       <c r="B12" s="136"/>
       <c r="C12" s="137"/>
-      <c r="D12" s="145"/>
-      <c r="E12" s="146"/>
+      <c r="D12" s="142"/>
+      <c r="E12" s="143"/>
       <c r="F12" s="124"/>
       <c r="G12" s="125"/>
       <c r="H12" s="47" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I12" s="47" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J12" s="47"/>
-      <c r="K12" s="154"/>
+      <c r="K12" s="149"/>
     </row>
     <row r="13" spans="1:11" ht="10.5" customHeight="1">
       <c r="A13" s="53">
-        <v>981</v>
+        <v>901</v>
       </c>
       <c r="B13" s="138"/>
       <c r="C13" s="139"/>
-      <c r="D13" s="147"/>
-      <c r="E13" s="148"/>
+      <c r="D13" s="144"/>
+      <c r="E13" s="145"/>
       <c r="F13" s="126"/>
       <c r="G13" s="127"/>
-      <c r="H13" s="55" t="s">
-        <v>38</v>
+      <c r="H13" s="55">
+        <v>43381</v>
       </c>
       <c r="I13" s="55"/>
       <c r="J13" s="56"/>
-      <c r="K13" s="155"/>
+      <c r="K13" s="150"/>
     </row>
     <row r="14" spans="1:11" s="2" customFormat="1" ht="10.5" customHeight="1">
       <c r="A14" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="131" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="132"/>
+      <c r="D14" s="131" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="132"/>
+      <c r="F14" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="132"/>
+      <c r="H14" s="133" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="133"/>
+      <c r="J14" s="128" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="141" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="142"/>
-      <c r="D14" s="141" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="142"/>
-      <c r="F14" s="141" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="142"/>
-      <c r="H14" s="140" t="s">
-        <v>27</v>
-      </c>
-      <c r="I14" s="140"/>
-      <c r="J14" s="128" t="s">
-        <v>28</v>
-      </c>
       <c r="K14" s="58" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="10.5" customHeight="1">
@@ -3379,61 +3415,61 @@
         <v>2</v>
       </c>
       <c r="B15" s="134" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C15" s="135"/>
-      <c r="D15" s="143" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" s="144"/>
-      <c r="F15" s="143" t="s">
-        <v>67</v>
-      </c>
-      <c r="G15" s="158"/>
-      <c r="H15" s="151" t="s">
-        <v>40</v>
-      </c>
-      <c r="I15" s="152"/>
+      <c r="D15" s="140" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="141"/>
+      <c r="F15" s="140" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="156"/>
+      <c r="H15" s="154" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="155"/>
       <c r="J15" s="54"/>
-      <c r="K15" s="153"/>
+      <c r="K15" s="148"/>
     </row>
     <row r="16" spans="1:11" ht="10.5" customHeight="1">
       <c r="A16" s="128" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B16" s="136"/>
       <c r="C16" s="137"/>
-      <c r="D16" s="145"/>
-      <c r="E16" s="146"/>
-      <c r="F16" s="159"/>
-      <c r="G16" s="160"/>
+      <c r="D16" s="142"/>
+      <c r="E16" s="143"/>
+      <c r="F16" s="157"/>
+      <c r="G16" s="158"/>
       <c r="H16" s="128" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I16" s="128" t="s">
         <v>1</v>
       </c>
       <c r="J16" s="128" t="s">
-        <v>36</v>
-      </c>
-      <c r="K16" s="154"/>
+        <v>31</v>
+      </c>
+      <c r="K16" s="149"/>
     </row>
     <row r="17" spans="1:11" ht="10.5" customHeight="1">
       <c r="A17" s="51" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B17" s="136"/>
       <c r="C17" s="137"/>
-      <c r="D17" s="145"/>
-      <c r="E17" s="146"/>
-      <c r="F17" s="159"/>
-      <c r="G17" s="160"/>
+      <c r="D17" s="142"/>
+      <c r="E17" s="143"/>
+      <c r="F17" s="157"/>
+      <c r="G17" s="158"/>
       <c r="H17" s="52" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="I17" s="52"/>
       <c r="J17" s="50"/>
-      <c r="K17" s="154"/>
+      <c r="K17" s="149"/>
     </row>
     <row r="18" spans="1:11" ht="10.5" customHeight="1">
       <c r="A18" s="128" t="s">
@@ -3441,61 +3477,61 @@
       </c>
       <c r="B18" s="136"/>
       <c r="C18" s="137"/>
-      <c r="D18" s="145"/>
-      <c r="E18" s="146"/>
-      <c r="F18" s="159"/>
-      <c r="G18" s="160"/>
+      <c r="D18" s="142"/>
+      <c r="E18" s="143"/>
+      <c r="F18" s="157"/>
+      <c r="G18" s="158"/>
       <c r="H18" s="128" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I18" s="128" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J18" s="128"/>
-      <c r="K18" s="154"/>
+      <c r="K18" s="149"/>
     </row>
     <row r="19" spans="1:11" ht="10.5" customHeight="1">
       <c r="A19" s="53">
-        <v>921</v>
+        <v>902</v>
       </c>
       <c r="B19" s="138"/>
       <c r="C19" s="139"/>
-      <c r="D19" s="147"/>
-      <c r="E19" s="148"/>
-      <c r="F19" s="161"/>
-      <c r="G19" s="162"/>
-      <c r="H19" s="52" t="s">
-        <v>38</v>
+      <c r="D19" s="144"/>
+      <c r="E19" s="145"/>
+      <c r="F19" s="159"/>
+      <c r="G19" s="160"/>
+      <c r="H19" s="52">
+        <v>43381</v>
       </c>
       <c r="I19" s="52"/>
       <c r="J19" s="50"/>
-      <c r="K19" s="154"/>
+      <c r="K19" s="149"/>
     </row>
     <row r="20" spans="1:11" ht="10.5" customHeight="1">
       <c r="A20" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="131" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="132"/>
+      <c r="D20" s="131" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="132"/>
+      <c r="F20" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="132"/>
+      <c r="H20" s="133" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="133"/>
+      <c r="J20" s="128" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="141" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="142"/>
-      <c r="D20" s="141" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" s="142"/>
-      <c r="F20" s="141" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="142"/>
-      <c r="H20" s="140" t="s">
-        <v>27</v>
-      </c>
-      <c r="I20" s="140"/>
-      <c r="J20" s="128" t="s">
-        <v>28</v>
-      </c>
       <c r="K20" s="58" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="10.5" customHeight="1">
@@ -3503,67 +3539,65 @@
         <v>3</v>
       </c>
       <c r="B21" s="134" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C21" s="135"/>
-      <c r="D21" s="143" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21" s="144"/>
-      <c r="F21" s="143" t="s">
-        <v>69</v>
-      </c>
-      <c r="G21" s="158"/>
-      <c r="H21" s="151" t="s">
-        <v>33</v>
-      </c>
-      <c r="I21" s="152"/>
+      <c r="D21" s="140" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="141"/>
+      <c r="F21" s="140" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="156"/>
+      <c r="H21" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="155"/>
       <c r="J21" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" s="153"/>
+        <v>90</v>
+      </c>
+      <c r="K21" s="148" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="22" spans="1:11" s="2" customFormat="1" ht="10.5" customHeight="1">
       <c r="A22" s="128" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B22" s="136"/>
       <c r="C22" s="137"/>
-      <c r="D22" s="145"/>
-      <c r="E22" s="146"/>
-      <c r="F22" s="159"/>
-      <c r="G22" s="160"/>
+      <c r="D22" s="142"/>
+      <c r="E22" s="143"/>
+      <c r="F22" s="157"/>
+      <c r="G22" s="158"/>
       <c r="H22" s="128" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I22" s="128" t="s">
         <v>1</v>
       </c>
       <c r="J22" s="128" t="s">
-        <v>36</v>
-      </c>
-      <c r="K22" s="154"/>
+        <v>31</v>
+      </c>
+      <c r="K22" s="149"/>
     </row>
     <row r="23" spans="1:11" ht="10.5" customHeight="1">
       <c r="A23" s="51" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B23" s="136"/>
       <c r="C23" s="137"/>
-      <c r="D23" s="145"/>
-      <c r="E23" s="146"/>
-      <c r="F23" s="159"/>
-      <c r="G23" s="160"/>
+      <c r="D23" s="142"/>
+      <c r="E23" s="143"/>
+      <c r="F23" s="157"/>
+      <c r="G23" s="158"/>
       <c r="H23" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="I23" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="J23" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="K23" s="154"/>
+        <v>88</v>
+      </c>
+      <c r="I23" s="52"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="149"/>
     </row>
     <row r="24" spans="1:11" ht="10.5" customHeight="1">
       <c r="A24" s="128" t="s">
@@ -3571,18 +3605,18 @@
       </c>
       <c r="B24" s="136"/>
       <c r="C24" s="137"/>
-      <c r="D24" s="145"/>
-      <c r="E24" s="146"/>
-      <c r="F24" s="159"/>
-      <c r="G24" s="160"/>
+      <c r="D24" s="142"/>
+      <c r="E24" s="143"/>
+      <c r="F24" s="157"/>
+      <c r="G24" s="158"/>
       <c r="H24" s="128" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I24" s="128" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J24" s="128"/>
-      <c r="K24" s="154"/>
+      <c r="K24" s="149"/>
     </row>
     <row r="25" spans="1:11" ht="10.5" customHeight="1">
       <c r="A25" s="53">
@@ -3590,44 +3624,42 @@
       </c>
       <c r="B25" s="138"/>
       <c r="C25" s="139"/>
-      <c r="D25" s="147"/>
-      <c r="E25" s="148"/>
-      <c r="F25" s="161"/>
-      <c r="G25" s="162"/>
-      <c r="H25" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="I25" s="52" t="s">
-        <v>2</v>
-      </c>
+      <c r="D25" s="144"/>
+      <c r="E25" s="145"/>
+      <c r="F25" s="159"/>
+      <c r="G25" s="160"/>
+      <c r="H25" s="52">
+        <v>43381</v>
+      </c>
+      <c r="I25" s="52"/>
       <c r="J25" s="50"/>
-      <c r="K25" s="154"/>
+      <c r="K25" s="149"/>
     </row>
     <row r="26" spans="1:11" ht="10.5" customHeight="1">
       <c r="A26" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="131" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="132"/>
+      <c r="D26" s="131" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="132"/>
+      <c r="F26" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="132"/>
+      <c r="H26" s="133" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26" s="133"/>
+      <c r="J26" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="141" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="142"/>
-      <c r="D26" s="141" t="s">
-        <v>59</v>
-      </c>
-      <c r="E26" s="142"/>
-      <c r="F26" s="141" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" s="142"/>
-      <c r="H26" s="140" t="s">
-        <v>27</v>
-      </c>
-      <c r="I26" s="140"/>
-      <c r="J26" s="59" t="s">
-        <v>28</v>
-      </c>
       <c r="K26" s="58" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="10.5" customHeight="1">
@@ -3635,67 +3667,61 @@
         <v>4</v>
       </c>
       <c r="B27" s="134" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="135"/>
+      <c r="D27" s="140" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="135"/>
-      <c r="D27" s="143" t="s">
-        <v>70</v>
-      </c>
-      <c r="E27" s="144"/>
-      <c r="F27" s="143" t="s">
-        <v>71</v>
-      </c>
-      <c r="G27" s="158"/>
-      <c r="H27" s="151" t="s">
-        <v>33</v>
-      </c>
-      <c r="I27" s="152"/>
-      <c r="J27" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="K27" s="153"/>
+      <c r="E27" s="141"/>
+      <c r="F27" s="140" t="s">
+        <v>64</v>
+      </c>
+      <c r="G27" s="156"/>
+      <c r="H27" s="154" t="s">
+        <v>34</v>
+      </c>
+      <c r="I27" s="155"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="148"/>
     </row>
     <row r="28" spans="1:11" s="2" customFormat="1" ht="10.5" customHeight="1">
       <c r="A28" s="59" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B28" s="136"/>
       <c r="C28" s="137"/>
-      <c r="D28" s="145"/>
-      <c r="E28" s="146"/>
-      <c r="F28" s="159"/>
-      <c r="G28" s="160"/>
+      <c r="D28" s="142"/>
+      <c r="E28" s="143"/>
+      <c r="F28" s="157"/>
+      <c r="G28" s="158"/>
       <c r="H28" s="59" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I28" s="59" t="s">
         <v>1</v>
       </c>
       <c r="J28" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="K28" s="154"/>
+        <v>31</v>
+      </c>
+      <c r="K28" s="149"/>
     </row>
     <row r="29" spans="1:11" ht="10.5" customHeight="1">
       <c r="A29" s="51" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B29" s="136"/>
       <c r="C29" s="137"/>
-      <c r="D29" s="145"/>
-      <c r="E29" s="146"/>
-      <c r="F29" s="159"/>
-      <c r="G29" s="160"/>
+      <c r="D29" s="142"/>
+      <c r="E29" s="143"/>
+      <c r="F29" s="157"/>
+      <c r="G29" s="158"/>
       <c r="H29" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="I29" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="J29" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="K29" s="154"/>
+        <v>88</v>
+      </c>
+      <c r="I29" s="52"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="149"/>
     </row>
     <row r="30" spans="1:11" ht="10.5" customHeight="1">
       <c r="A30" s="59" t="s">
@@ -3703,18 +3729,18 @@
       </c>
       <c r="B30" s="136"/>
       <c r="C30" s="137"/>
-      <c r="D30" s="145"/>
-      <c r="E30" s="146"/>
-      <c r="F30" s="159"/>
-      <c r="G30" s="160"/>
+      <c r="D30" s="142"/>
+      <c r="E30" s="143"/>
+      <c r="F30" s="157"/>
+      <c r="G30" s="158"/>
       <c r="H30" s="59" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I30" s="59" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J30" s="59"/>
-      <c r="K30" s="154"/>
+      <c r="K30" s="149"/>
     </row>
     <row r="31" spans="1:11" ht="10.5" customHeight="1">
       <c r="A31" s="53">
@@ -3722,44 +3748,42 @@
       </c>
       <c r="B31" s="138"/>
       <c r="C31" s="139"/>
-      <c r="D31" s="147"/>
-      <c r="E31" s="148"/>
-      <c r="F31" s="161"/>
-      <c r="G31" s="162"/>
-      <c r="H31" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="I31" s="52" t="s">
-        <v>2</v>
-      </c>
+      <c r="D31" s="144"/>
+      <c r="E31" s="145"/>
+      <c r="F31" s="159"/>
+      <c r="G31" s="160"/>
+      <c r="H31" s="52">
+        <v>43381</v>
+      </c>
+      <c r="I31" s="52"/>
       <c r="J31" s="50"/>
-      <c r="K31" s="154"/>
+      <c r="K31" s="149"/>
     </row>
     <row r="32" spans="1:11" s="2" customFormat="1" ht="10.5" customHeight="1">
       <c r="A32" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="131" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="132"/>
+      <c r="D32" s="131" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" s="132"/>
+      <c r="F32" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="132"/>
+      <c r="H32" s="133" t="s">
+        <v>23</v>
+      </c>
+      <c r="I32" s="133"/>
+      <c r="J32" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="141" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="142"/>
-      <c r="D32" s="141" t="s">
-        <v>59</v>
-      </c>
-      <c r="E32" s="142"/>
-      <c r="F32" s="141" t="s">
-        <v>26</v>
-      </c>
-      <c r="G32" s="142"/>
-      <c r="H32" s="140" t="s">
-        <v>27</v>
-      </c>
-      <c r="I32" s="140"/>
-      <c r="J32" s="59" t="s">
-        <v>28</v>
-      </c>
       <c r="K32" s="59" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="10.5" customHeight="1">
@@ -3768,61 +3792,67 @@
         <v>5</v>
       </c>
       <c r="B33" s="134" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C33" s="135"/>
-      <c r="D33" s="143" t="s">
-        <v>74</v>
-      </c>
-      <c r="E33" s="144"/>
-      <c r="F33" s="143" t="s">
-        <v>75</v>
-      </c>
-      <c r="G33" s="144"/>
-      <c r="H33" s="149" t="s">
-        <v>33</v>
-      </c>
-      <c r="I33" s="150"/>
-      <c r="J33" s="50"/>
-      <c r="K33" s="153"/>
+      <c r="D33" s="140" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" s="141"/>
+      <c r="F33" s="140" t="s">
+        <v>67</v>
+      </c>
+      <c r="G33" s="141"/>
+      <c r="H33" s="146" t="s">
+        <v>29</v>
+      </c>
+      <c r="I33" s="147"/>
+      <c r="J33" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="K33" s="148" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="34" spans="1:11" ht="10.5" customHeight="1">
       <c r="A34" s="59" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B34" s="136"/>
       <c r="C34" s="137"/>
-      <c r="D34" s="145"/>
-      <c r="E34" s="146"/>
-      <c r="F34" s="145"/>
-      <c r="G34" s="146"/>
+      <c r="D34" s="142"/>
+      <c r="E34" s="143"/>
+      <c r="F34" s="142"/>
+      <c r="G34" s="143"/>
       <c r="H34" s="59" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I34" s="59" t="s">
         <v>1</v>
       </c>
       <c r="J34" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="K34" s="154"/>
+        <v>31</v>
+      </c>
+      <c r="K34" s="149"/>
     </row>
     <row r="35" spans="1:11" ht="10.5" customHeight="1">
       <c r="A35" s="51" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="B35" s="136"/>
       <c r="C35" s="137"/>
-      <c r="D35" s="145"/>
-      <c r="E35" s="146"/>
-      <c r="F35" s="145"/>
-      <c r="G35" s="146"/>
+      <c r="D35" s="142"/>
+      <c r="E35" s="143"/>
+      <c r="F35" s="142"/>
+      <c r="G35" s="143"/>
       <c r="H35" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="I35" s="52"/>
+        <v>88</v>
+      </c>
+      <c r="I35" s="52" t="s">
+        <v>92</v>
+      </c>
       <c r="J35" s="50"/>
-      <c r="K35" s="154"/>
+      <c r="K35" s="149"/>
     </row>
     <row r="36" spans="1:11" ht="10.5" customHeight="1">
       <c r="A36" s="59" t="s">
@@ -3830,16 +3860,18 @@
       </c>
       <c r="B36" s="136"/>
       <c r="C36" s="137"/>
-      <c r="D36" s="145"/>
-      <c r="E36" s="146"/>
-      <c r="F36" s="145"/>
-      <c r="G36" s="146"/>
+      <c r="D36" s="142"/>
+      <c r="E36" s="143"/>
+      <c r="F36" s="142"/>
+      <c r="G36" s="143"/>
       <c r="H36" s="59" t="s">
-        <v>35</v>
-      </c>
-      <c r="I36" s="59"/>
+        <v>30</v>
+      </c>
+      <c r="I36" s="59" t="s">
+        <v>27</v>
+      </c>
       <c r="J36" s="59"/>
-      <c r="K36" s="154"/>
+      <c r="K36" s="149"/>
     </row>
     <row r="37" spans="1:11" ht="10.5" customHeight="1">
       <c r="A37" s="53">
@@ -3847,42 +3879,42 @@
       </c>
       <c r="B37" s="138"/>
       <c r="C37" s="139"/>
-      <c r="D37" s="147"/>
-      <c r="E37" s="148"/>
-      <c r="F37" s="147"/>
-      <c r="G37" s="148"/>
-      <c r="H37" s="52" t="s">
-        <v>38</v>
+      <c r="D37" s="144"/>
+      <c r="E37" s="145"/>
+      <c r="F37" s="144"/>
+      <c r="G37" s="145"/>
+      <c r="H37" s="52">
+        <v>43442</v>
       </c>
       <c r="I37" s="52"/>
       <c r="J37" s="50"/>
-      <c r="K37" s="155"/>
+      <c r="K37" s="150"/>
     </row>
     <row r="38" spans="1:11" s="62" customFormat="1" ht="10.5" customHeight="1">
       <c r="A38" s="128" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="131" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="132"/>
+      <c r="D38" s="131" t="s">
+        <v>52</v>
+      </c>
+      <c r="E38" s="132"/>
+      <c r="F38" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" s="132"/>
+      <c r="H38" s="133" t="s">
+        <v>23</v>
+      </c>
+      <c r="I38" s="133"/>
+      <c r="J38" s="128" t="s">
         <v>24</v>
       </c>
-      <c r="B38" s="141" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" s="142"/>
-      <c r="D38" s="141" t="s">
-        <v>59</v>
-      </c>
-      <c r="E38" s="142"/>
-      <c r="F38" s="141" t="s">
-        <v>26</v>
-      </c>
-      <c r="G38" s="142"/>
-      <c r="H38" s="140" t="s">
-        <v>27</v>
-      </c>
-      <c r="I38" s="140"/>
-      <c r="J38" s="128" t="s">
-        <v>28</v>
-      </c>
       <c r="K38" s="128" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:11" s="62" customFormat="1" ht="10.5" customHeight="1">
@@ -3891,61 +3923,61 @@
         <v>6</v>
       </c>
       <c r="B39" s="134" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C39" s="135"/>
-      <c r="D39" s="143" t="s">
-        <v>86</v>
-      </c>
-      <c r="E39" s="144"/>
-      <c r="F39" s="143" t="s">
-        <v>87</v>
-      </c>
-      <c r="G39" s="144"/>
-      <c r="H39" s="149" t="s">
-        <v>33</v>
-      </c>
-      <c r="I39" s="150"/>
+      <c r="D39" s="140" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39" s="141"/>
+      <c r="F39" s="140" t="s">
+        <v>79</v>
+      </c>
+      <c r="G39" s="141"/>
+      <c r="H39" s="146" t="s">
+        <v>34</v>
+      </c>
+      <c r="I39" s="147"/>
       <c r="J39" s="50"/>
-      <c r="K39" s="153"/>
+      <c r="K39" s="148"/>
     </row>
     <row r="40" spans="1:11" s="62" customFormat="1">
       <c r="A40" s="128" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B40" s="136"/>
       <c r="C40" s="137"/>
-      <c r="D40" s="145"/>
-      <c r="E40" s="146"/>
-      <c r="F40" s="145"/>
-      <c r="G40" s="146"/>
+      <c r="D40" s="142"/>
+      <c r="E40" s="143"/>
+      <c r="F40" s="142"/>
+      <c r="G40" s="143"/>
       <c r="H40" s="128" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I40" s="128" t="s">
         <v>1</v>
       </c>
       <c r="J40" s="128" t="s">
-        <v>36</v>
-      </c>
-      <c r="K40" s="154"/>
+        <v>31</v>
+      </c>
+      <c r="K40" s="149"/>
     </row>
     <row r="41" spans="1:11" s="62" customFormat="1">
       <c r="A41" s="51" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="B41" s="136"/>
       <c r="C41" s="137"/>
-      <c r="D41" s="145"/>
-      <c r="E41" s="146"/>
-      <c r="F41" s="145"/>
-      <c r="G41" s="146"/>
+      <c r="D41" s="142"/>
+      <c r="E41" s="143"/>
+      <c r="F41" s="142"/>
+      <c r="G41" s="143"/>
       <c r="H41" s="52" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="I41" s="52"/>
       <c r="J41" s="50"/>
-      <c r="K41" s="154"/>
+      <c r="K41" s="149"/>
     </row>
     <row r="42" spans="1:11" s="62" customFormat="1">
       <c r="A42" s="128" t="s">
@@ -3953,127 +3985,123 @@
       </c>
       <c r="B42" s="136"/>
       <c r="C42" s="137"/>
-      <c r="D42" s="145"/>
-      <c r="E42" s="146"/>
-      <c r="F42" s="145"/>
-      <c r="G42" s="146"/>
+      <c r="D42" s="142"/>
+      <c r="E42" s="143"/>
+      <c r="F42" s="142"/>
+      <c r="G42" s="143"/>
       <c r="H42" s="128" t="s">
-        <v>35</v>
-      </c>
-      <c r="I42" s="128"/>
+        <v>30</v>
+      </c>
+      <c r="I42" s="128" t="s">
+        <v>27</v>
+      </c>
       <c r="J42" s="128"/>
-      <c r="K42" s="154"/>
+      <c r="K42" s="149"/>
     </row>
     <row r="43" spans="1:11" s="62" customFormat="1" ht="21" customHeight="1">
       <c r="A43" s="53">
-        <v>922</v>
+        <v>952</v>
       </c>
       <c r="B43" s="138"/>
       <c r="C43" s="139"/>
-      <c r="D43" s="147"/>
-      <c r="E43" s="148"/>
-      <c r="F43" s="147"/>
-      <c r="G43" s="148"/>
-      <c r="H43" s="52" t="s">
-        <v>38</v>
+      <c r="D43" s="144"/>
+      <c r="E43" s="145"/>
+      <c r="F43" s="144"/>
+      <c r="G43" s="145"/>
+      <c r="H43" s="52">
+        <v>43412</v>
       </c>
       <c r="I43" s="52"/>
       <c r="J43" s="50"/>
-      <c r="K43" s="155"/>
+      <c r="K43" s="150"/>
     </row>
     <row r="44" spans="1:11" s="62" customFormat="1">
       <c r="A44" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" s="151" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="152"/>
+      <c r="D44" s="151" t="s">
+        <v>52</v>
+      </c>
+      <c r="E44" s="152"/>
+      <c r="F44" s="151" t="s">
+        <v>22</v>
+      </c>
+      <c r="G44" s="152"/>
+      <c r="H44" s="153" t="s">
+        <v>23</v>
+      </c>
+      <c r="I44" s="153"/>
+      <c r="J44" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="B44" s="131" t="s">
+      <c r="K44" s="60" t="s">
         <v>25</v>
-      </c>
-      <c r="C44" s="132"/>
-      <c r="D44" s="131" t="s">
-        <v>59</v>
-      </c>
-      <c r="E44" s="132"/>
-      <c r="F44" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="G44" s="132"/>
-      <c r="H44" s="133" t="s">
-        <v>27</v>
-      </c>
-      <c r="I44" s="133"/>
-      <c r="J44" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="K44" s="60" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:11" s="62" customFormat="1">
       <c r="A45" s="50">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B45" s="134" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C45" s="135"/>
-      <c r="D45" s="143" t="s">
-        <v>76</v>
-      </c>
-      <c r="E45" s="144"/>
-      <c r="F45" s="143" t="s">
-        <v>77</v>
-      </c>
-      <c r="G45" s="144"/>
-      <c r="H45" s="151" t="s">
-        <v>33</v>
-      </c>
-      <c r="I45" s="152"/>
-      <c r="J45" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="K45" s="153"/>
+      <c r="D45" s="140" t="s">
+        <v>68</v>
+      </c>
+      <c r="E45" s="141"/>
+      <c r="F45" s="140" t="s">
+        <v>69</v>
+      </c>
+      <c r="G45" s="141"/>
+      <c r="H45" s="154" t="s">
+        <v>34</v>
+      </c>
+      <c r="I45" s="155"/>
+      <c r="J45" s="54"/>
+      <c r="K45" s="148"/>
     </row>
     <row r="46" spans="1:11" s="62" customFormat="1">
       <c r="A46" s="47" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B46" s="136"/>
       <c r="C46" s="137"/>
-      <c r="D46" s="145"/>
-      <c r="E46" s="146"/>
-      <c r="F46" s="145"/>
-      <c r="G46" s="146"/>
+      <c r="D46" s="142"/>
+      <c r="E46" s="143"/>
+      <c r="F46" s="142"/>
+      <c r="G46" s="143"/>
       <c r="H46" s="47" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I46" s="47" t="s">
         <v>1</v>
       </c>
       <c r="J46" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="K46" s="154"/>
+        <v>31</v>
+      </c>
+      <c r="K46" s="149"/>
     </row>
     <row r="47" spans="1:11" s="62" customFormat="1">
       <c r="A47" s="51" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="B47" s="136"/>
       <c r="C47" s="137"/>
-      <c r="D47" s="145"/>
-      <c r="E47" s="146"/>
-      <c r="F47" s="145"/>
-      <c r="G47" s="146"/>
+      <c r="D47" s="142"/>
+      <c r="E47" s="143"/>
+      <c r="F47" s="142"/>
+      <c r="G47" s="143"/>
       <c r="H47" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="I47" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="J47" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="K47" s="154"/>
+        <v>88</v>
+      </c>
+      <c r="I47" s="52"/>
+      <c r="J47" s="50"/>
+      <c r="K47" s="149"/>
     </row>
     <row r="48" spans="1:11" s="62" customFormat="1">
       <c r="A48" s="47" t="s">
@@ -4081,18 +4109,18 @@
       </c>
       <c r="B48" s="136"/>
       <c r="C48" s="137"/>
-      <c r="D48" s="145"/>
-      <c r="E48" s="146"/>
-      <c r="F48" s="145"/>
-      <c r="G48" s="146"/>
+      <c r="D48" s="142"/>
+      <c r="E48" s="143"/>
+      <c r="F48" s="142"/>
+      <c r="G48" s="143"/>
       <c r="H48" s="47" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I48" s="47" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J48" s="47"/>
-      <c r="K48" s="154"/>
+      <c r="K48" s="149"/>
     </row>
     <row r="49" spans="1:11" s="62" customFormat="1" ht="21" customHeight="1">
       <c r="A49" s="53">
@@ -4100,112 +4128,104 @@
       </c>
       <c r="B49" s="138"/>
       <c r="C49" s="139"/>
-      <c r="D49" s="147"/>
-      <c r="E49" s="148"/>
-      <c r="F49" s="147"/>
-      <c r="G49" s="148"/>
-      <c r="H49" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="I49" s="52" t="s">
-        <v>2</v>
-      </c>
+      <c r="D49" s="144"/>
+      <c r="E49" s="145"/>
+      <c r="F49" s="144"/>
+      <c r="G49" s="145"/>
+      <c r="H49" s="52">
+        <v>43381</v>
+      </c>
+      <c r="I49" s="52"/>
       <c r="J49" s="50"/>
-      <c r="K49" s="155"/>
+      <c r="K49" s="150"/>
     </row>
     <row r="50" spans="1:11" s="62" customFormat="1">
       <c r="A50" s="120" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" s="151" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" s="152"/>
+      <c r="D50" s="151" t="s">
+        <v>52</v>
+      </c>
+      <c r="E50" s="152"/>
+      <c r="F50" s="151" t="s">
+        <v>22</v>
+      </c>
+      <c r="G50" s="152"/>
+      <c r="H50" s="153" t="s">
+        <v>23</v>
+      </c>
+      <c r="I50" s="153"/>
+      <c r="J50" s="120" t="s">
         <v>24</v>
       </c>
-      <c r="B50" s="131" t="s">
+      <c r="K50" s="121" t="s">
         <v>25</v>
-      </c>
-      <c r="C50" s="132"/>
-      <c r="D50" s="131" t="s">
-        <v>59</v>
-      </c>
-      <c r="E50" s="132"/>
-      <c r="F50" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="G50" s="132"/>
-      <c r="H50" s="133" t="s">
-        <v>27</v>
-      </c>
-      <c r="I50" s="133"/>
-      <c r="J50" s="120" t="s">
-        <v>28</v>
-      </c>
-      <c r="K50" s="121" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="51" spans="1:11" s="62" customFormat="1">
       <c r="A51" s="50">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B51" s="134" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C51" s="135"/>
-      <c r="D51" s="143" t="s">
-        <v>79</v>
-      </c>
-      <c r="E51" s="144"/>
-      <c r="F51" s="143" t="s">
-        <v>80</v>
-      </c>
-      <c r="G51" s="144"/>
-      <c r="H51" s="151" t="s">
-        <v>33</v>
-      </c>
-      <c r="I51" s="152"/>
-      <c r="J51" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="K51" s="153"/>
+      <c r="D51" s="140" t="s">
+        <v>71</v>
+      </c>
+      <c r="E51" s="141"/>
+      <c r="F51" s="140" t="s">
+        <v>72</v>
+      </c>
+      <c r="G51" s="141"/>
+      <c r="H51" s="154" t="s">
+        <v>34</v>
+      </c>
+      <c r="I51" s="155"/>
+      <c r="J51" s="54"/>
+      <c r="K51" s="148"/>
     </row>
     <row r="52" spans="1:11" s="62" customFormat="1">
       <c r="A52" s="120" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B52" s="136"/>
       <c r="C52" s="137"/>
-      <c r="D52" s="145"/>
-      <c r="E52" s="146"/>
-      <c r="F52" s="145"/>
-      <c r="G52" s="146"/>
+      <c r="D52" s="142"/>
+      <c r="E52" s="143"/>
+      <c r="F52" s="142"/>
+      <c r="G52" s="143"/>
       <c r="H52" s="120" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I52" s="120" t="s">
         <v>1</v>
       </c>
       <c r="J52" s="120" t="s">
-        <v>36</v>
-      </c>
-      <c r="K52" s="154"/>
+        <v>31</v>
+      </c>
+      <c r="K52" s="149"/>
     </row>
     <row r="53" spans="1:11" s="62" customFormat="1">
       <c r="A53" s="51" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="B53" s="136"/>
       <c r="C53" s="137"/>
-      <c r="D53" s="145"/>
-      <c r="E53" s="146"/>
-      <c r="F53" s="145"/>
-      <c r="G53" s="146"/>
+      <c r="D53" s="142"/>
+      <c r="E53" s="143"/>
+      <c r="F53" s="142"/>
+      <c r="G53" s="143"/>
       <c r="H53" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="I53" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="J53" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="K53" s="154"/>
+        <v>88</v>
+      </c>
+      <c r="I53" s="52"/>
+      <c r="J53" s="50"/>
+      <c r="K53" s="149"/>
     </row>
     <row r="54" spans="1:11" s="62" customFormat="1">
       <c r="A54" s="120" t="s">
@@ -4213,131 +4233,129 @@
       </c>
       <c r="B54" s="136"/>
       <c r="C54" s="137"/>
-      <c r="D54" s="145"/>
-      <c r="E54" s="146"/>
-      <c r="F54" s="145"/>
-      <c r="G54" s="146"/>
+      <c r="D54" s="142"/>
+      <c r="E54" s="143"/>
+      <c r="F54" s="142"/>
+      <c r="G54" s="143"/>
       <c r="H54" s="120" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I54" s="120" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J54" s="120"/>
-      <c r="K54" s="154"/>
+      <c r="K54" s="149"/>
     </row>
     <row r="55" spans="1:11" s="62" customFormat="1">
       <c r="A55" s="53">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B55" s="138"/>
       <c r="C55" s="139"/>
-      <c r="D55" s="147"/>
-      <c r="E55" s="148"/>
-      <c r="F55" s="147"/>
-      <c r="G55" s="148"/>
-      <c r="H55" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="I55" s="52" t="s">
-        <v>2</v>
-      </c>
+      <c r="D55" s="144"/>
+      <c r="E55" s="145"/>
+      <c r="F55" s="144"/>
+      <c r="G55" s="145"/>
+      <c r="H55" s="52">
+        <v>43443</v>
+      </c>
+      <c r="I55" s="52"/>
       <c r="J55" s="50"/>
-      <c r="K55" s="155"/>
+      <c r="K55" s="150"/>
     </row>
     <row r="56" spans="1:11" s="62" customFormat="1">
       <c r="A56" s="120" t="s">
+        <v>20</v>
+      </c>
+      <c r="B56" s="151" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56" s="152"/>
+      <c r="D56" s="151" t="s">
+        <v>52</v>
+      </c>
+      <c r="E56" s="152"/>
+      <c r="F56" s="151" t="s">
+        <v>22</v>
+      </c>
+      <c r="G56" s="152"/>
+      <c r="H56" s="153" t="s">
+        <v>23</v>
+      </c>
+      <c r="I56" s="153"/>
+      <c r="J56" s="120" t="s">
         <v>24</v>
       </c>
-      <c r="B56" s="131" t="s">
+      <c r="K56" s="121" t="s">
         <v>25</v>
-      </c>
-      <c r="C56" s="132"/>
-      <c r="D56" s="131" t="s">
-        <v>59</v>
-      </c>
-      <c r="E56" s="132"/>
-      <c r="F56" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="G56" s="132"/>
-      <c r="H56" s="133" t="s">
-        <v>27</v>
-      </c>
-      <c r="I56" s="133"/>
-      <c r="J56" s="120" t="s">
-        <v>28</v>
-      </c>
-      <c r="K56" s="121" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="57" spans="1:11" s="62" customFormat="1">
       <c r="A57" s="50">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B57" s="134" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C57" s="135"/>
-      <c r="D57" s="143" t="s">
-        <v>81</v>
-      </c>
-      <c r="E57" s="144"/>
-      <c r="F57" s="143" t="s">
-        <v>80</v>
-      </c>
-      <c r="G57" s="144"/>
-      <c r="H57" s="151" t="s">
-        <v>33</v>
-      </c>
-      <c r="I57" s="152"/>
+      <c r="D57" s="140" t="s">
+        <v>73</v>
+      </c>
+      <c r="E57" s="141"/>
+      <c r="F57" s="140" t="s">
+        <v>72</v>
+      </c>
+      <c r="G57" s="141"/>
+      <c r="H57" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="I57" s="155"/>
       <c r="J57" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="K57" s="153"/>
+        <v>94</v>
+      </c>
+      <c r="K57" s="148" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="58" spans="1:11" s="62" customFormat="1">
       <c r="A58" s="120" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B58" s="136"/>
       <c r="C58" s="137"/>
-      <c r="D58" s="145"/>
-      <c r="E58" s="146"/>
-      <c r="F58" s="145"/>
-      <c r="G58" s="146"/>
+      <c r="D58" s="142"/>
+      <c r="E58" s="143"/>
+      <c r="F58" s="142"/>
+      <c r="G58" s="143"/>
       <c r="H58" s="120" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I58" s="120" t="s">
         <v>1</v>
       </c>
       <c r="J58" s="120" t="s">
-        <v>36</v>
-      </c>
-      <c r="K58" s="154"/>
+        <v>31</v>
+      </c>
+      <c r="K58" s="149"/>
     </row>
     <row r="59" spans="1:11" s="62" customFormat="1">
       <c r="A59" s="51" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="B59" s="136"/>
       <c r="C59" s="137"/>
-      <c r="D59" s="145"/>
-      <c r="E59" s="146"/>
-      <c r="F59" s="145"/>
-      <c r="G59" s="146"/>
+      <c r="D59" s="142"/>
+      <c r="E59" s="143"/>
+      <c r="F59" s="142"/>
+      <c r="G59" s="143"/>
       <c r="H59" s="52" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="I59" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="J59" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="K59" s="154"/>
+        <v>92</v>
+      </c>
+      <c r="J59" s="50"/>
+      <c r="K59" s="149"/>
     </row>
     <row r="60" spans="1:11" s="62" customFormat="1">
       <c r="A60" s="120" t="s">
@@ -4345,131 +4363,123 @@
       </c>
       <c r="B60" s="136"/>
       <c r="C60" s="137"/>
-      <c r="D60" s="145"/>
-      <c r="E60" s="146"/>
-      <c r="F60" s="145"/>
-      <c r="G60" s="146"/>
+      <c r="D60" s="142"/>
+      <c r="E60" s="143"/>
+      <c r="F60" s="142"/>
+      <c r="G60" s="143"/>
       <c r="H60" s="120" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I60" s="120" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J60" s="120"/>
-      <c r="K60" s="154"/>
+      <c r="K60" s="149"/>
     </row>
     <row r="61" spans="1:11" s="62" customFormat="1">
       <c r="A61" s="53">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="B61" s="138"/>
       <c r="C61" s="139"/>
-      <c r="D61" s="147"/>
-      <c r="E61" s="148"/>
-      <c r="F61" s="147"/>
-      <c r="G61" s="148"/>
-      <c r="H61" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="I61" s="52" t="s">
-        <v>2</v>
-      </c>
+      <c r="D61" s="144"/>
+      <c r="E61" s="145"/>
+      <c r="F61" s="144"/>
+      <c r="G61" s="145"/>
+      <c r="H61" s="52">
+        <v>43351</v>
+      </c>
+      <c r="I61" s="52"/>
       <c r="J61" s="50"/>
-      <c r="K61" s="155"/>
+      <c r="K61" s="150"/>
     </row>
     <row r="62" spans="1:11" s="62" customFormat="1">
       <c r="A62" s="120" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" s="151" t="s">
+        <v>21</v>
+      </c>
+      <c r="C62" s="152"/>
+      <c r="D62" s="151" t="s">
+        <v>52</v>
+      </c>
+      <c r="E62" s="152"/>
+      <c r="F62" s="151" t="s">
+        <v>22</v>
+      </c>
+      <c r="G62" s="152"/>
+      <c r="H62" s="153" t="s">
+        <v>23</v>
+      </c>
+      <c r="I62" s="153"/>
+      <c r="J62" s="120" t="s">
         <v>24</v>
       </c>
-      <c r="B62" s="131" t="s">
+      <c r="K62" s="121" t="s">
         <v>25</v>
-      </c>
-      <c r="C62" s="132"/>
-      <c r="D62" s="131" t="s">
-        <v>59</v>
-      </c>
-      <c r="E62" s="132"/>
-      <c r="F62" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="G62" s="132"/>
-      <c r="H62" s="133" t="s">
-        <v>27</v>
-      </c>
-      <c r="I62" s="133"/>
-      <c r="J62" s="120" t="s">
-        <v>28</v>
-      </c>
-      <c r="K62" s="121" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="63" spans="1:11" s="62" customFormat="1">
       <c r="A63" s="50">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B63" s="134" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C63" s="135"/>
-      <c r="D63" s="143" t="s">
-        <v>83</v>
-      </c>
-      <c r="E63" s="144"/>
-      <c r="F63" s="143" t="s">
-        <v>82</v>
-      </c>
-      <c r="G63" s="144"/>
-      <c r="H63" s="151" t="s">
-        <v>33</v>
-      </c>
-      <c r="I63" s="152"/>
-      <c r="J63" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="K63" s="153"/>
+      <c r="D63" s="140" t="s">
+        <v>75</v>
+      </c>
+      <c r="E63" s="141"/>
+      <c r="F63" s="140" t="s">
+        <v>74</v>
+      </c>
+      <c r="G63" s="141"/>
+      <c r="H63" s="154" t="s">
+        <v>34</v>
+      </c>
+      <c r="I63" s="155"/>
+      <c r="J63" s="54"/>
+      <c r="K63" s="148"/>
     </row>
     <row r="64" spans="1:11" s="62" customFormat="1">
       <c r="A64" s="120" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B64" s="136"/>
       <c r="C64" s="137"/>
-      <c r="D64" s="145"/>
-      <c r="E64" s="146"/>
-      <c r="F64" s="145"/>
-      <c r="G64" s="146"/>
+      <c r="D64" s="142"/>
+      <c r="E64" s="143"/>
+      <c r="F64" s="142"/>
+      <c r="G64" s="143"/>
       <c r="H64" s="120" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I64" s="120" t="s">
         <v>1</v>
       </c>
       <c r="J64" s="120" t="s">
-        <v>36</v>
-      </c>
-      <c r="K64" s="154"/>
+        <v>31</v>
+      </c>
+      <c r="K64" s="149"/>
     </row>
     <row r="65" spans="1:11" s="62" customFormat="1">
       <c r="A65" s="51" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="B65" s="136"/>
       <c r="C65" s="137"/>
-      <c r="D65" s="145"/>
-      <c r="E65" s="146"/>
-      <c r="F65" s="145"/>
-      <c r="G65" s="146"/>
+      <c r="D65" s="142"/>
+      <c r="E65" s="143"/>
+      <c r="F65" s="142"/>
+      <c r="G65" s="143"/>
       <c r="H65" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="I65" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="J65" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="K65" s="154"/>
+        <v>88</v>
+      </c>
+      <c r="I65" s="52"/>
+      <c r="J65" s="50"/>
+      <c r="K65" s="149"/>
     </row>
     <row r="66" spans="1:11" s="62" customFormat="1">
       <c r="A66" s="120" t="s">
@@ -4477,131 +4487,129 @@
       </c>
       <c r="B66" s="136"/>
       <c r="C66" s="137"/>
-      <c r="D66" s="145"/>
-      <c r="E66" s="146"/>
-      <c r="F66" s="145"/>
-      <c r="G66" s="146"/>
+      <c r="D66" s="142"/>
+      <c r="E66" s="143"/>
+      <c r="F66" s="142"/>
+      <c r="G66" s="143"/>
       <c r="H66" s="120" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I66" s="120" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J66" s="120"/>
-      <c r="K66" s="154"/>
+      <c r="K66" s="149"/>
     </row>
     <row r="67" spans="1:11" s="62" customFormat="1">
       <c r="A67" s="53">
-        <v>823</v>
+        <v>831</v>
       </c>
       <c r="B67" s="138"/>
       <c r="C67" s="139"/>
-      <c r="D67" s="147"/>
-      <c r="E67" s="148"/>
-      <c r="F67" s="147"/>
-      <c r="G67" s="148"/>
+      <c r="D67" s="144"/>
+      <c r="E67" s="145"/>
+      <c r="F67" s="144"/>
+      <c r="G67" s="145"/>
       <c r="H67" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="I67" s="52" t="s">
-        <v>2</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="I67" s="52"/>
       <c r="J67" s="50"/>
-      <c r="K67" s="155"/>
+      <c r="K67" s="150"/>
     </row>
     <row r="68" spans="1:11" s="62" customFormat="1">
       <c r="A68" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="B68" s="151" t="s">
+        <v>21</v>
+      </c>
+      <c r="C68" s="152"/>
+      <c r="D68" s="151" t="s">
+        <v>52</v>
+      </c>
+      <c r="E68" s="152"/>
+      <c r="F68" s="151" t="s">
+        <v>22</v>
+      </c>
+      <c r="G68" s="152"/>
+      <c r="H68" s="153" t="s">
+        <v>23</v>
+      </c>
+      <c r="I68" s="153"/>
+      <c r="J68" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="B68" s="131" t="s">
+      <c r="K68" s="60" t="s">
         <v>25</v>
-      </c>
-      <c r="C68" s="132"/>
-      <c r="D68" s="131" t="s">
-        <v>59</v>
-      </c>
-      <c r="E68" s="132"/>
-      <c r="F68" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="G68" s="132"/>
-      <c r="H68" s="133" t="s">
-        <v>27</v>
-      </c>
-      <c r="I68" s="133"/>
-      <c r="J68" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="K68" s="60" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="69" spans="1:11" s="62" customFormat="1">
       <c r="A69" s="50">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B69" s="134" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C69" s="135"/>
-      <c r="D69" s="143" t="s">
-        <v>84</v>
-      </c>
-      <c r="E69" s="144"/>
-      <c r="F69" s="143" t="s">
-        <v>85</v>
-      </c>
-      <c r="G69" s="144"/>
-      <c r="H69" s="151" t="s">
-        <v>33</v>
-      </c>
-      <c r="I69" s="152"/>
+      <c r="D69" s="140" t="s">
+        <v>76</v>
+      </c>
+      <c r="E69" s="141"/>
+      <c r="F69" s="140" t="s">
+        <v>77</v>
+      </c>
+      <c r="G69" s="141"/>
+      <c r="H69" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="I69" s="155"/>
       <c r="J69" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="K69" s="153"/>
+        <v>97</v>
+      </c>
+      <c r="K69" s="148" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="70" spans="1:11" s="62" customFormat="1">
       <c r="A70" s="47" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B70" s="136"/>
       <c r="C70" s="137"/>
-      <c r="D70" s="145"/>
-      <c r="E70" s="146"/>
-      <c r="F70" s="145"/>
-      <c r="G70" s="146"/>
+      <c r="D70" s="142"/>
+      <c r="E70" s="143"/>
+      <c r="F70" s="142"/>
+      <c r="G70" s="143"/>
       <c r="H70" s="47" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I70" s="47" t="s">
         <v>1</v>
       </c>
       <c r="J70" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="K70" s="154"/>
+        <v>31</v>
+      </c>
+      <c r="K70" s="149"/>
     </row>
     <row r="71" spans="1:11" s="62" customFormat="1">
       <c r="A71" s="51" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="B71" s="136"/>
       <c r="C71" s="137"/>
-      <c r="D71" s="145"/>
-      <c r="E71" s="146"/>
-      <c r="F71" s="145"/>
-      <c r="G71" s="146"/>
+      <c r="D71" s="142"/>
+      <c r="E71" s="143"/>
+      <c r="F71" s="142"/>
+      <c r="G71" s="143"/>
       <c r="H71" s="52" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I71" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="J71" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="K71" s="154"/>
+        <v>98</v>
+      </c>
+      <c r="J71" s="50"/>
+      <c r="K71" s="149"/>
     </row>
     <row r="72" spans="1:11" s="62" customFormat="1">
       <c r="A72" s="47" t="s">
@@ -4609,37 +4617,35 @@
       </c>
       <c r="B72" s="136"/>
       <c r="C72" s="137"/>
-      <c r="D72" s="145"/>
-      <c r="E72" s="146"/>
-      <c r="F72" s="145"/>
-      <c r="G72" s="146"/>
+      <c r="D72" s="142"/>
+      <c r="E72" s="143"/>
+      <c r="F72" s="142"/>
+      <c r="G72" s="143"/>
       <c r="H72" s="47" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I72" s="47" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J72" s="47"/>
-      <c r="K72" s="154"/>
+      <c r="K72" s="149"/>
     </row>
     <row r="73" spans="1:11" s="62" customFormat="1">
       <c r="A73" s="53">
-        <v>823</v>
+        <v>898</v>
       </c>
       <c r="B73" s="138"/>
       <c r="C73" s="139"/>
-      <c r="D73" s="147"/>
-      <c r="E73" s="148"/>
-      <c r="F73" s="147"/>
-      <c r="G73" s="148"/>
+      <c r="D73" s="144"/>
+      <c r="E73" s="145"/>
+      <c r="F73" s="144"/>
+      <c r="G73" s="145"/>
       <c r="H73" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="I73" s="52" t="s">
-        <v>2</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="I73" s="52"/>
       <c r="J73" s="50"/>
-      <c r="K73" s="155"/>
+      <c r="K73" s="150"/>
     </row>
     <row r="74" spans="1:11" s="62" customFormat="1">
       <c r="A74" s="66"/>
@@ -5258,74 +5264,19 @@
     </row>
   </sheetData>
   <mergeCells count="99">
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="B39:C43"/>
-    <mergeCell ref="D39:E43"/>
-    <mergeCell ref="F39:G43"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="K39:K43"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="B63:C67"/>
-    <mergeCell ref="D63:E67"/>
-    <mergeCell ref="F63:G67"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="B57:C61"/>
-    <mergeCell ref="D57:E61"/>
-    <mergeCell ref="F57:G61"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="K57:K61"/>
-    <mergeCell ref="F15:G19"/>
-    <mergeCell ref="F21:G25"/>
-    <mergeCell ref="F27:G31"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="B51:C55"/>
-    <mergeCell ref="D51:E55"/>
-    <mergeCell ref="F51:G55"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="K51:K55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="B21:C25"/>
-    <mergeCell ref="D21:E25"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="K21:K25"/>
-    <mergeCell ref="K15:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="K9:K13"/>
-    <mergeCell ref="K27:K31"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="K33:K37"/>
-    <mergeCell ref="D33:E37"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G37"/>
-    <mergeCell ref="K69:K73"/>
-    <mergeCell ref="F45:G49"/>
-    <mergeCell ref="K45:K49"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="K63:K67"/>
+    <mergeCell ref="B9:C13"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="B45:C49"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="B15:C19"/>
+    <mergeCell ref="D15:E19"/>
+    <mergeCell ref="H15:I15"/>
     <mergeCell ref="B69:C73"/>
     <mergeCell ref="D45:E49"/>
     <mergeCell ref="D69:E73"/>
@@ -5342,21 +5293,76 @@
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="B44:C44"/>
+    <mergeCell ref="K69:K73"/>
+    <mergeCell ref="F45:G49"/>
+    <mergeCell ref="K45:K49"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="K63:K67"/>
     <mergeCell ref="H68:I68"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="K9:K13"/>
+    <mergeCell ref="K27:K31"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="K33:K37"/>
+    <mergeCell ref="D33:E37"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G37"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C13"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="B45:C49"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="B15:C19"/>
-    <mergeCell ref="D15:E19"/>
-    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="K21:K25"/>
+    <mergeCell ref="K15:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="F15:G19"/>
+    <mergeCell ref="F21:G25"/>
+    <mergeCell ref="F27:G31"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="B21:C25"/>
+    <mergeCell ref="D21:E25"/>
+    <mergeCell ref="B63:C67"/>
+    <mergeCell ref="D63:E67"/>
+    <mergeCell ref="F63:G67"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="B57:C61"/>
+    <mergeCell ref="D57:E61"/>
+    <mergeCell ref="F57:G61"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="K39:K43"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="K57:K61"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="B51:C55"/>
+    <mergeCell ref="D51:E55"/>
+    <mergeCell ref="F51:G55"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="K51:K55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="B39:C43"/>
+    <mergeCell ref="D39:E43"/>
+    <mergeCell ref="F39:G43"/>
+    <mergeCell ref="H39:I39"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H69:I69">

--- a/ProjectCode_Testcase_Template_v2.2.xlsx
+++ b/ProjectCode_Testcase_Template_v2.2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\GitHub\PM-Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9101EF82-FCC8-45F7-975C-2729896988B2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9CFC2207-54B0-46D1-BD14-47CA6A9ECEDE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -848,7 +848,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -906,6 +906,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="24"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1168,7 +1174,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1247,12 +1253,6 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1479,32 +1479,38 @@
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1524,6 +1530,12 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1539,20 +1551,11 @@
     <xf numFmtId="49" fontId="21" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1569,10 +1572,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2084,7 +2099,7 @@
       <c r="S2" s="13"/>
       <c r="T2" s="13"/>
       <c r="U2" s="13"/>
-      <c r="V2" s="73"/>
+      <c r="V2" s="71"/>
       <c r="W2" s="13"/>
       <c r="X2" s="14"/>
     </row>
@@ -2104,7 +2119,7 @@
       <c r="K3" s="18"/>
       <c r="L3" s="18"/>
       <c r="M3" s="18"/>
-      <c r="N3" s="72"/>
+      <c r="N3" s="70"/>
       <c r="O3" s="18"/>
       <c r="P3" s="18"/>
       <c r="Q3" s="18"/>
@@ -2112,7 +2127,7 @@
       <c r="S3" s="18"/>
       <c r="T3" s="18"/>
       <c r="U3" s="18"/>
-      <c r="V3" s="74"/>
+      <c r="V3" s="72"/>
       <c r="W3" s="18"/>
       <c r="X3" s="19"/>
     </row>
@@ -2171,13 +2186,13 @@
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
-      <c r="O6" s="129" t="s">
+      <c r="O6" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="P6" s="129"/>
-      <c r="Q6" s="129"/>
-      <c r="R6" s="129"/>
-      <c r="S6" s="129"/>
+      <c r="P6" s="127"/>
+      <c r="Q6" s="127"/>
+      <c r="R6" s="127"/>
+      <c r="S6" s="127"/>
       <c r="U6" s="18"/>
       <c r="V6" s="18"/>
       <c r="W6" s="18"/>
@@ -2187,11 +2202,11 @@
       <c r="B7" s="22"/>
       <c r="E7" s="4"/>
       <c r="G7" s="21"/>
-      <c r="O7" s="129"/>
-      <c r="P7" s="129"/>
-      <c r="Q7" s="129"/>
-      <c r="R7" s="129"/>
-      <c r="S7" s="129"/>
+      <c r="O7" s="127"/>
+      <c r="P7" s="127"/>
+      <c r="Q7" s="127"/>
+      <c r="R7" s="127"/>
+      <c r="S7" s="127"/>
       <c r="X7" s="23"/>
     </row>
     <row r="8" spans="1:24" s="24" customFormat="1" ht="14.25" customHeight="1">
@@ -2200,7 +2215,7 @@
       <c r="J8" s="29"/>
       <c r="K8" s="29"/>
       <c r="L8" s="31"/>
-      <c r="X8" s="71"/>
+      <c r="X8" s="69"/>
     </row>
     <row r="9" spans="1:24" ht="14.25" customHeight="1">
       <c r="B9" s="30"/>
@@ -2213,7 +2228,7 @@
       </c>
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
-      <c r="H9" s="76"/>
+      <c r="H9" s="74"/>
       <c r="X9" s="19"/>
     </row>
     <row r="10" spans="1:24" ht="14.25" customHeight="1">
@@ -2225,11 +2240,11 @@
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
       <c r="G10" s="28"/>
-      <c r="H10" s="76"/>
+      <c r="H10" s="74"/>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
-      <c r="L10" s="117" t="s">
+      <c r="L10" s="115" t="s">
         <v>16</v>
       </c>
       <c r="O10" s="21"/>
@@ -2246,13 +2261,13 @@
       <c r="D11" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="130">
+      <c r="E11" s="128">
         <f ca="1">TODAY()</f>
         <v>43443</v>
       </c>
-      <c r="F11" s="130"/>
-      <c r="G11" s="130"/>
-      <c r="H11" s="76"/>
+      <c r="F11" s="128"/>
+      <c r="G11" s="128"/>
+      <c r="H11" s="74"/>
       <c r="L11" s="33" t="s">
         <v>11</v>
       </c>
@@ -2283,23 +2298,23 @@
       </c>
       <c r="M12" s="34"/>
       <c r="N12" s="34"/>
-      <c r="O12" s="67">
+      <c r="O12" s="65">
         <v>2</v>
       </c>
-      <c r="P12" s="67"/>
-      <c r="Q12" s="68">
+      <c r="P12" s="65"/>
+      <c r="Q12" s="66">
         <v>3</v>
       </c>
-      <c r="R12" s="68"/>
-      <c r="S12" s="69">
+      <c r="R12" s="66"/>
+      <c r="S12" s="67">
         <v>4</v>
       </c>
-      <c r="T12" s="69"/>
-      <c r="U12" s="70">
+      <c r="T12" s="67"/>
+      <c r="U12" s="68">
         <f t="shared" ref="U12:U18" si="0">SUM(O12:T12)</f>
         <v>9</v>
       </c>
-      <c r="V12" s="70"/>
+      <c r="V12" s="68"/>
       <c r="X12" s="19"/>
     </row>
     <row r="13" spans="1:24">
@@ -2309,23 +2324,23 @@
       </c>
       <c r="M13" s="34"/>
       <c r="N13" s="34"/>
-      <c r="O13" s="67">
+      <c r="O13" s="65">
         <v>22</v>
       </c>
-      <c r="P13" s="67"/>
-      <c r="Q13" s="68">
+      <c r="P13" s="65"/>
+      <c r="Q13" s="66">
         <v>22</v>
       </c>
-      <c r="R13" s="68"/>
-      <c r="S13" s="69">
+      <c r="R13" s="66"/>
+      <c r="S13" s="67">
         <v>22</v>
       </c>
-      <c r="T13" s="69"/>
-      <c r="U13" s="70">
+      <c r="T13" s="67"/>
+      <c r="U13" s="68">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="V13" s="70"/>
+      <c r="V13" s="68"/>
       <c r="X13" s="19"/>
     </row>
     <row r="14" spans="1:24">
@@ -2335,23 +2350,23 @@
       </c>
       <c r="M14" s="35"/>
       <c r="N14" s="35"/>
-      <c r="O14" s="67">
+      <c r="O14" s="65">
         <v>32</v>
       </c>
-      <c r="P14" s="67"/>
-      <c r="Q14" s="68">
+      <c r="P14" s="65"/>
+      <c r="Q14" s="66">
         <v>32</v>
       </c>
-      <c r="R14" s="68"/>
-      <c r="S14" s="69">
+      <c r="R14" s="66"/>
+      <c r="S14" s="67">
         <v>32</v>
       </c>
-      <c r="T14" s="69"/>
-      <c r="U14" s="70">
+      <c r="T14" s="67"/>
+      <c r="U14" s="68">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
-      <c r="V14" s="70"/>
+      <c r="V14" s="68"/>
       <c r="X14" s="19"/>
     </row>
     <row r="15" spans="1:24">
@@ -2359,32 +2374,32 @@
       <c r="D15" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="75"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
       <c r="L15" s="34">
         <v>4</v>
       </c>
       <c r="M15" s="34"/>
       <c r="N15" s="34"/>
-      <c r="O15" s="67">
+      <c r="O15" s="65">
         <v>42</v>
       </c>
-      <c r="P15" s="67"/>
-      <c r="Q15" s="68">
+      <c r="P15" s="65"/>
+      <c r="Q15" s="66">
         <v>42</v>
       </c>
-      <c r="R15" s="68"/>
-      <c r="S15" s="69">
+      <c r="R15" s="66"/>
+      <c r="S15" s="67">
         <v>42</v>
       </c>
-      <c r="T15" s="69"/>
-      <c r="U15" s="70">
+      <c r="T15" s="67"/>
+      <c r="U15" s="68">
         <f t="shared" si="0"/>
         <v>126</v>
       </c>
-      <c r="V15" s="70"/>
+      <c r="V15" s="68"/>
       <c r="X15" s="19"/>
     </row>
     <row r="16" spans="1:24">
@@ -2399,23 +2414,23 @@
       </c>
       <c r="M16" s="35"/>
       <c r="N16" s="35"/>
-      <c r="O16" s="67">
+      <c r="O16" s="65">
         <v>52</v>
       </c>
-      <c r="P16" s="67"/>
-      <c r="Q16" s="68">
+      <c r="P16" s="65"/>
+      <c r="Q16" s="66">
         <v>52</v>
       </c>
-      <c r="R16" s="68"/>
-      <c r="S16" s="69">
+      <c r="R16" s="66"/>
+      <c r="S16" s="67">
         <v>52</v>
       </c>
-      <c r="T16" s="69"/>
-      <c r="U16" s="70">
+      <c r="T16" s="67"/>
+      <c r="U16" s="68">
         <f t="shared" si="0"/>
         <v>156</v>
       </c>
-      <c r="V16" s="70"/>
+      <c r="V16" s="68"/>
       <c r="X16" s="19"/>
     </row>
     <row r="17" spans="2:35">
@@ -2430,23 +2445,23 @@
       </c>
       <c r="M17" s="34"/>
       <c r="N17" s="34"/>
-      <c r="O17" s="67">
+      <c r="O17" s="65">
         <v>62</v>
       </c>
-      <c r="P17" s="67"/>
-      <c r="Q17" s="68">
+      <c r="P17" s="65"/>
+      <c r="Q17" s="66">
         <v>62</v>
       </c>
-      <c r="R17" s="68"/>
-      <c r="S17" s="69">
+      <c r="R17" s="66"/>
+      <c r="S17" s="67">
         <v>62</v>
       </c>
-      <c r="T17" s="69"/>
-      <c r="U17" s="70">
+      <c r="T17" s="67"/>
+      <c r="U17" s="68">
         <f t="shared" si="0"/>
         <v>186</v>
       </c>
-      <c r="V17" s="70"/>
+      <c r="V17" s="68"/>
       <c r="X17" s="19"/>
     </row>
     <row r="18" spans="2:35">
@@ -2461,23 +2476,23 @@
       </c>
       <c r="M18" s="35"/>
       <c r="N18" s="35"/>
-      <c r="O18" s="67">
+      <c r="O18" s="65">
         <v>72</v>
       </c>
-      <c r="P18" s="67"/>
-      <c r="Q18" s="68">
+      <c r="P18" s="65"/>
+      <c r="Q18" s="66">
         <v>72</v>
       </c>
-      <c r="R18" s="68"/>
-      <c r="S18" s="69">
+      <c r="R18" s="66"/>
+      <c r="S18" s="67">
         <v>72</v>
       </c>
-      <c r="T18" s="69"/>
-      <c r="U18" s="70">
+      <c r="T18" s="67"/>
+      <c r="U18" s="68">
         <f t="shared" si="0"/>
         <v>216</v>
       </c>
-      <c r="V18" s="70"/>
+      <c r="V18" s="68"/>
       <c r="X18" s="19"/>
     </row>
     <row r="19" spans="2:35">
@@ -2492,27 +2507,27 @@
       </c>
       <c r="M19" s="37"/>
       <c r="N19" s="37"/>
-      <c r="O19" s="115">
+      <c r="O19" s="113">
         <f>SUM(O12:O18)</f>
         <v>284</v>
       </c>
-      <c r="P19" s="115"/>
-      <c r="Q19" s="115">
+      <c r="P19" s="113"/>
+      <c r="Q19" s="113">
         <f>SUM(Q12:Q18)</f>
         <v>285</v>
       </c>
-      <c r="R19" s="115"/>
-      <c r="S19" s="115">
+      <c r="R19" s="113"/>
+      <c r="S19" s="113">
         <f>SUM(S12:S18)</f>
         <v>286</v>
       </c>
-      <c r="T19" s="115"/>
-      <c r="U19" s="116">
+      <c r="T19" s="113"/>
+      <c r="U19" s="114">
         <f>SUM(U12:U18)</f>
         <v>855</v>
       </c>
-      <c r="V19" s="116"/>
-      <c r="W19" s="78"/>
+      <c r="V19" s="114"/>
+      <c r="W19" s="76"/>
       <c r="X19" s="19"/>
     </row>
     <row r="20" spans="2:35">
@@ -2542,10 +2557,10 @@
       <c r="D22" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="75"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="73"/>
       <c r="W22" s="17"/>
       <c r="X22" s="23"/>
     </row>
@@ -2556,7 +2571,7 @@
       <c r="F23" s="44"/>
       <c r="G23" s="44"/>
       <c r="H23" s="44"/>
-      <c r="W23" s="79"/>
+      <c r="W23" s="77"/>
       <c r="X23" s="23"/>
     </row>
     <row r="24" spans="2:35" s="17" customFormat="1">
@@ -2566,20 +2581,20 @@
       <c r="F24" s="44"/>
       <c r="G24" s="44"/>
       <c r="H24" s="44"/>
-      <c r="L24" s="117" t="s">
+      <c r="L24" s="115" t="s">
         <v>49</v>
       </c>
-      <c r="M24" s="107"/>
-      <c r="N24" s="107"/>
-      <c r="O24" s="107"/>
-      <c r="P24" s="108"/>
-      <c r="Q24" s="108"/>
-      <c r="R24" s="108"/>
-      <c r="S24" s="108"/>
-      <c r="T24" s="108"/>
-      <c r="U24" s="108"/>
-      <c r="V24" s="108"/>
-      <c r="W24" s="77"/>
+      <c r="M24" s="105"/>
+      <c r="N24" s="105"/>
+      <c r="O24" s="105"/>
+      <c r="P24" s="106"/>
+      <c r="Q24" s="106"/>
+      <c r="R24" s="106"/>
+      <c r="S24" s="106"/>
+      <c r="T24" s="106"/>
+      <c r="U24" s="106"/>
+      <c r="V24" s="106"/>
+      <c r="W24" s="75"/>
       <c r="X24" s="23"/>
     </row>
     <row r="25" spans="2:35" s="17" customFormat="1">
@@ -2588,18 +2603,18 @@
       <c r="F25" s="44"/>
       <c r="G25" s="44"/>
       <c r="H25" s="44"/>
-      <c r="L25" s="109"/>
-      <c r="M25" s="110"/>
-      <c r="N25" s="110"/>
-      <c r="O25" s="110"/>
-      <c r="P25" s="111"/>
-      <c r="Q25" s="111"/>
-      <c r="R25" s="111"/>
-      <c r="S25" s="111"/>
-      <c r="T25" s="111"/>
-      <c r="U25" s="111"/>
-      <c r="V25" s="111"/>
-      <c r="W25" s="77"/>
+      <c r="L25" s="107"/>
+      <c r="M25" s="108"/>
+      <c r="N25" s="108"/>
+      <c r="O25" s="108"/>
+      <c r="P25" s="109"/>
+      <c r="Q25" s="109"/>
+      <c r="R25" s="109"/>
+      <c r="S25" s="109"/>
+      <c r="T25" s="109"/>
+      <c r="U25" s="109"/>
+      <c r="V25" s="109"/>
+      <c r="W25" s="75"/>
       <c r="X25" s="23"/>
     </row>
     <row r="26" spans="2:35" s="17" customFormat="1">
@@ -2608,58 +2623,58 @@
       <c r="F26" s="44"/>
       <c r="G26" s="44"/>
       <c r="H26" s="44"/>
-      <c r="L26" s="109"/>
-      <c r="M26" s="110"/>
-      <c r="N26" s="110"/>
-      <c r="O26" s="110"/>
-      <c r="P26" s="111"/>
-      <c r="Q26" s="111"/>
-      <c r="R26" s="111"/>
-      <c r="S26" s="111"/>
-      <c r="T26" s="111"/>
-      <c r="U26" s="111"/>
-      <c r="V26" s="111"/>
-      <c r="W26" s="77"/>
+      <c r="L26" s="107"/>
+      <c r="M26" s="108"/>
+      <c r="N26" s="108"/>
+      <c r="O26" s="108"/>
+      <c r="P26" s="109"/>
+      <c r="Q26" s="109"/>
+      <c r="R26" s="109"/>
+      <c r="S26" s="109"/>
+      <c r="T26" s="109"/>
+      <c r="U26" s="109"/>
+      <c r="V26" s="109"/>
+      <c r="W26" s="75"/>
       <c r="X26" s="23"/>
-      <c r="AB26" s="80"/>
+      <c r="AB26" s="78"/>
     </row>
     <row r="27" spans="2:35" s="17" customFormat="1">
       <c r="B27" s="22"/>
       <c r="D27" s="38"/>
       <c r="E27" s="4"/>
-      <c r="L27" s="109"/>
-      <c r="M27" s="110"/>
-      <c r="N27" s="110"/>
-      <c r="O27" s="110"/>
-      <c r="P27" s="111"/>
-      <c r="Q27" s="111"/>
-      <c r="R27" s="111"/>
-      <c r="S27" s="111"/>
-      <c r="T27" s="111"/>
-      <c r="U27" s="111"/>
-      <c r="V27" s="111"/>
-      <c r="W27" s="77"/>
+      <c r="L27" s="107"/>
+      <c r="M27" s="108"/>
+      <c r="N27" s="108"/>
+      <c r="O27" s="108"/>
+      <c r="P27" s="109"/>
+      <c r="Q27" s="109"/>
+      <c r="R27" s="109"/>
+      <c r="S27" s="109"/>
+      <c r="T27" s="109"/>
+      <c r="U27" s="109"/>
+      <c r="V27" s="109"/>
+      <c r="W27" s="75"/>
       <c r="X27" s="23"/>
-      <c r="AB27" s="80"/>
+      <c r="AB27" s="78"/>
     </row>
     <row r="28" spans="2:35" s="17" customFormat="1">
       <c r="B28" s="22"/>
       <c r="D28" s="38"/>
       <c r="E28" s="4"/>
-      <c r="L28" s="109"/>
-      <c r="M28" s="110"/>
-      <c r="N28" s="110"/>
-      <c r="O28" s="110"/>
-      <c r="P28" s="111"/>
-      <c r="Q28" s="111"/>
-      <c r="R28" s="111"/>
-      <c r="S28" s="111"/>
-      <c r="T28" s="111"/>
-      <c r="U28" s="111"/>
-      <c r="V28" s="111"/>
-      <c r="W28" s="77"/>
+      <c r="L28" s="107"/>
+      <c r="M28" s="108"/>
+      <c r="N28" s="108"/>
+      <c r="O28" s="108"/>
+      <c r="P28" s="109"/>
+      <c r="Q28" s="109"/>
+      <c r="R28" s="109"/>
+      <c r="S28" s="109"/>
+      <c r="T28" s="109"/>
+      <c r="U28" s="109"/>
+      <c r="V28" s="109"/>
+      <c r="W28" s="75"/>
       <c r="X28" s="23"/>
-      <c r="AB28" s="80"/>
+      <c r="AB28" s="78"/>
     </row>
     <row r="29" spans="2:35" s="17" customFormat="1">
       <c r="B29" s="22"/>
@@ -2669,34 +2684,34 @@
       <c r="G29" s="26"/>
       <c r="H29" s="26"/>
       <c r="K29" s="31"/>
-      <c r="L29" s="109"/>
-      <c r="M29" s="110"/>
-      <c r="N29" s="110"/>
-      <c r="O29" s="110"/>
-      <c r="P29" s="111"/>
-      <c r="Q29" s="111"/>
-      <c r="R29" s="111"/>
-      <c r="S29" s="111"/>
-      <c r="T29" s="111"/>
-      <c r="U29" s="111"/>
-      <c r="V29" s="111"/>
-      <c r="W29" s="77"/>
+      <c r="L29" s="107"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="108"/>
+      <c r="O29" s="108"/>
+      <c r="P29" s="109"/>
+      <c r="Q29" s="109"/>
+      <c r="R29" s="109"/>
+      <c r="S29" s="109"/>
+      <c r="T29" s="109"/>
+      <c r="U29" s="109"/>
+      <c r="V29" s="109"/>
+      <c r="W29" s="75"/>
       <c r="X29" s="23"/>
     </row>
     <row r="30" spans="2:35" s="17" customFormat="1">
       <c r="B30" s="22"/>
-      <c r="L30" s="109"/>
-      <c r="M30" s="110"/>
-      <c r="N30" s="110"/>
-      <c r="O30" s="110"/>
-      <c r="P30" s="111"/>
-      <c r="Q30" s="111"/>
-      <c r="R30" s="111"/>
-      <c r="S30" s="111"/>
-      <c r="T30" s="111"/>
-      <c r="U30" s="111"/>
-      <c r="V30" s="111"/>
-      <c r="W30" s="77"/>
+      <c r="L30" s="107"/>
+      <c r="M30" s="108"/>
+      <c r="N30" s="108"/>
+      <c r="O30" s="108"/>
+      <c r="P30" s="109"/>
+      <c r="Q30" s="109"/>
+      <c r="R30" s="109"/>
+      <c r="S30" s="109"/>
+      <c r="T30" s="109"/>
+      <c r="U30" s="109"/>
+      <c r="V30" s="109"/>
+      <c r="W30" s="75"/>
       <c r="X30" s="23"/>
     </row>
     <row r="31" spans="2:35">
@@ -2712,18 +2727,18 @@
       <c r="I31" s="18"/>
       <c r="J31" s="18"/>
       <c r="K31" s="18"/>
-      <c r="L31" s="112"/>
-      <c r="M31" s="110"/>
-      <c r="N31" s="110"/>
-      <c r="O31" s="110"/>
-      <c r="P31" s="111"/>
-      <c r="Q31" s="111"/>
-      <c r="R31" s="111"/>
-      <c r="S31" s="111"/>
-      <c r="T31" s="111"/>
-      <c r="U31" s="111"/>
-      <c r="V31" s="111"/>
-      <c r="W31" s="77"/>
+      <c r="L31" s="110"/>
+      <c r="M31" s="108"/>
+      <c r="N31" s="108"/>
+      <c r="O31" s="108"/>
+      <c r="P31" s="109"/>
+      <c r="Q31" s="109"/>
+      <c r="R31" s="109"/>
+      <c r="S31" s="109"/>
+      <c r="T31" s="109"/>
+      <c r="U31" s="109"/>
+      <c r="V31" s="109"/>
+      <c r="W31" s="75"/>
       <c r="X31" s="23"/>
       <c r="AA31" s="17"/>
       <c r="AB31" s="17"/>
@@ -2748,18 +2763,18 @@
       <c r="I32" s="18"/>
       <c r="J32" s="18"/>
       <c r="K32" s="18"/>
-      <c r="L32" s="109"/>
-      <c r="M32" s="110"/>
-      <c r="N32" s="110"/>
-      <c r="O32" s="110"/>
-      <c r="P32" s="111"/>
-      <c r="Q32" s="111"/>
-      <c r="R32" s="111"/>
-      <c r="S32" s="111"/>
-      <c r="T32" s="111"/>
-      <c r="U32" s="111"/>
-      <c r="V32" s="111"/>
-      <c r="W32" s="77"/>
+      <c r="L32" s="107"/>
+      <c r="M32" s="108"/>
+      <c r="N32" s="108"/>
+      <c r="O32" s="108"/>
+      <c r="P32" s="109"/>
+      <c r="Q32" s="109"/>
+      <c r="R32" s="109"/>
+      <c r="S32" s="109"/>
+      <c r="T32" s="109"/>
+      <c r="U32" s="109"/>
+      <c r="V32" s="109"/>
+      <c r="W32" s="75"/>
       <c r="X32" s="23"/>
       <c r="AA32" s="17"/>
       <c r="AB32" s="17"/>
@@ -2782,18 +2797,18 @@
       <c r="I33" s="18"/>
       <c r="J33" s="18"/>
       <c r="K33" s="18"/>
-      <c r="L33" s="109"/>
-      <c r="M33" s="113"/>
-      <c r="N33" s="110"/>
-      <c r="O33" s="110"/>
-      <c r="P33" s="111"/>
-      <c r="Q33" s="111"/>
-      <c r="R33" s="111"/>
-      <c r="S33" s="111"/>
-      <c r="T33" s="111"/>
-      <c r="U33" s="111"/>
-      <c r="V33" s="114"/>
-      <c r="W33" s="78"/>
+      <c r="L33" s="107"/>
+      <c r="M33" s="111"/>
+      <c r="N33" s="108"/>
+      <c r="O33" s="108"/>
+      <c r="P33" s="109"/>
+      <c r="Q33" s="109"/>
+      <c r="R33" s="109"/>
+      <c r="S33" s="109"/>
+      <c r="T33" s="109"/>
+      <c r="U33" s="109"/>
+      <c r="V33" s="112"/>
+      <c r="W33" s="76"/>
       <c r="X33" s="23"/>
       <c r="AA33" s="17"/>
       <c r="AB33" s="17"/>
@@ -2832,7 +2847,7 @@
       <c r="W34" s="45"/>
       <c r="X34" s="23"/>
       <c r="AA34" s="17"/>
-      <c r="AB34" s="80"/>
+      <c r="AB34" s="78"/>
       <c r="AC34" s="17"/>
       <c r="AD34" s="17"/>
       <c r="AE34" s="17"/>
@@ -3112,7 +3127,7 @@
   <dimension ref="A1:K130"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -3124,300 +3139,300 @@
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="62" customFormat="1">
-      <c r="A1" s="81" t="s">
+    <row r="1" spans="1:11" s="60" customFormat="1">
+      <c r="A1" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="84" t="s">
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="85" t="s">
+      <c r="H1" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="104">
+      <c r="I1" s="102">
         <f>COUNTIF(H1:H820,"OK")</f>
         <v>7</v>
       </c>
-      <c r="J1" s="86" t="s">
+      <c r="J1" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="87"/>
-    </row>
-    <row r="2" spans="1:11" s="62" customFormat="1">
-      <c r="A2" s="119" t="s">
+      <c r="K1" s="85"/>
+    </row>
+    <row r="2" spans="1:11" s="60" customFormat="1">
+      <c r="A2" s="117" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="92" t="s">
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="105">
+      <c r="I2" s="103">
         <f>COUNTIF(H2:H821,"Not OK")</f>
         <v>4</v>
       </c>
-      <c r="J2" s="93" t="s">
+      <c r="J2" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="94"/>
-    </row>
-    <row r="3" spans="1:11" s="62" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A3" s="88" t="s">
+      <c r="K2" s="92"/>
+    </row>
+    <row r="3" spans="1:11" s="60" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A3" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="92" t="s">
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="106">
+      <c r="I3" s="104">
         <f>COUNTIF(H2:H821,"Untested")</f>
         <v>0</v>
       </c>
-      <c r="J3" s="93" t="s">
+      <c r="J3" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="K3" s="94"/>
-    </row>
-    <row r="4" spans="1:11" s="62" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A4" s="95"/>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="96" t="s">
+      <c r="K3" s="92"/>
+    </row>
+    <row r="4" spans="1:11" s="60" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A4" s="93"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="89"/>
-      <c r="I4" s="105">
+      <c r="H4" s="87"/>
+      <c r="I4" s="103">
         <f>COUNTIF(H3:H822,"Result")</f>
         <v>11</v>
       </c>
-      <c r="J4" s="93"/>
-      <c r="K4" s="94"/>
-    </row>
-    <row r="5" spans="1:11" s="62" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A5" s="97"/>
-      <c r="B5" s="98"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="101"/>
-      <c r="K5" s="102"/>
-    </row>
-    <row r="6" spans="1:11" s="62" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A6" s="63"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="92"/>
+    </row>
+    <row r="5" spans="1:11" s="60" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A5" s="95"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="99"/>
+      <c r="K5" s="100"/>
+    </row>
+    <row r="6" spans="1:11" s="60" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
     </row>
     <row r="7" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="161" t="s">
+      <c r="B7" s="154" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="161"/>
-      <c r="D7" s="161"/>
-      <c r="E7" s="161"/>
-      <c r="F7" s="161"/>
-      <c r="G7" s="161"/>
-      <c r="H7" s="161"/>
-      <c r="I7" s="161"/>
-      <c r="J7" s="161"/>
-      <c r="K7" s="161"/>
+      <c r="C7" s="154"/>
+      <c r="D7" s="154"/>
+      <c r="E7" s="154"/>
+      <c r="F7" s="154"/>
+      <c r="G7" s="154"/>
+      <c r="H7" s="154"/>
+      <c r="I7" s="154"/>
+      <c r="J7" s="154"/>
+      <c r="K7" s="154"/>
     </row>
     <row r="8" spans="1:11" s="2" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="161" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="151" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="152"/>
-      <c r="D8" s="151" t="s">
+      <c r="B8" s="162" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="163"/>
+      <c r="D8" s="162" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="152"/>
-      <c r="F8" s="151" t="s">
+      <c r="E8" s="163"/>
+      <c r="F8" s="162" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="152"/>
-      <c r="H8" s="162" t="s">
+      <c r="G8" s="163"/>
+      <c r="H8" s="164" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="162"/>
-      <c r="J8" s="48" t="s">
+      <c r="I8" s="164"/>
+      <c r="J8" s="160" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="49" t="s">
+      <c r="K8" s="165" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A9" s="50">
+      <c r="A9" s="48">
         <v>1</v>
       </c>
-      <c r="B9" s="134" t="s">
+      <c r="B9" s="129" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="135"/>
+      <c r="C9" s="130"/>
       <c r="D9" s="140" t="s">
         <v>57</v>
       </c>
       <c r="E9" s="141"/>
-      <c r="F9" s="122" t="s">
+      <c r="F9" s="120" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="123"/>
-      <c r="H9" s="146" t="s">
+      <c r="G9" s="121"/>
+      <c r="H9" s="148" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="147"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="148"/>
+      <c r="I9" s="149"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="150"/>
     </row>
     <row r="10" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="161" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="136"/>
-      <c r="C10" s="137"/>
+      <c r="B10" s="131"/>
+      <c r="C10" s="132"/>
       <c r="D10" s="142"/>
       <c r="E10" s="143"/>
-      <c r="F10" s="124"/>
-      <c r="G10" s="125"/>
-      <c r="H10" s="47" t="s">
+      <c r="F10" s="122"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="161" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="47" t="s">
+      <c r="I10" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="J10" s="47" t="s">
+      <c r="J10" s="161" t="s">
         <v>31</v>
       </c>
-      <c r="K10" s="149"/>
+      <c r="K10" s="151"/>
     </row>
     <row r="11" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="136"/>
-      <c r="C11" s="137"/>
+      <c r="B11" s="131"/>
+      <c r="C11" s="132"/>
       <c r="D11" s="142"/>
       <c r="E11" s="143"/>
-      <c r="F11" s="124"/>
-      <c r="G11" s="125"/>
-      <c r="H11" s="52" t="s">
+      <c r="F11" s="122"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="I11" s="52"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="149"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="151"/>
     </row>
     <row r="12" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="161" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="136"/>
-      <c r="C12" s="137"/>
+      <c r="B12" s="131"/>
+      <c r="C12" s="132"/>
       <c r="D12" s="142"/>
       <c r="E12" s="143"/>
-      <c r="F12" s="124"/>
-      <c r="G12" s="125"/>
-      <c r="H12" s="47" t="s">
+      <c r="F12" s="122"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="161" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="47" t="s">
+      <c r="I12" s="161" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="47"/>
-      <c r="K12" s="149"/>
+      <c r="J12" s="161"/>
+      <c r="K12" s="151"/>
     </row>
     <row r="13" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A13" s="53">
+      <c r="A13" s="51">
         <v>901</v>
       </c>
-      <c r="B13" s="138"/>
-      <c r="C13" s="139"/>
+      <c r="B13" s="133"/>
+      <c r="C13" s="134"/>
       <c r="D13" s="144"/>
       <c r="E13" s="145"/>
-      <c r="F13" s="126"/>
-      <c r="G13" s="127"/>
-      <c r="H13" s="55">
+      <c r="F13" s="124"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="53">
         <v>43381</v>
       </c>
-      <c r="I13" s="55"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="150"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="152"/>
     </row>
     <row r="14" spans="1:11" s="2" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A14" s="57" t="s">
+      <c r="A14" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="131" t="s">
+      <c r="B14" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="132"/>
-      <c r="D14" s="131" t="s">
+      <c r="C14" s="137"/>
+      <c r="D14" s="136" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="132"/>
-      <c r="F14" s="131" t="s">
+      <c r="E14" s="137"/>
+      <c r="F14" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="132"/>
-      <c r="H14" s="133" t="s">
+      <c r="G14" s="137"/>
+      <c r="H14" s="135" t="s">
         <v>23</v>
       </c>
-      <c r="I14" s="133"/>
-      <c r="J14" s="128" t="s">
+      <c r="I14" s="135"/>
+      <c r="J14" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="58" t="s">
+      <c r="K14" s="56" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A15" s="50">
+      <c r="A15" s="48">
         <v>2</v>
       </c>
-      <c r="B15" s="134" t="s">
+      <c r="B15" s="129" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="135"/>
+      <c r="C15" s="130"/>
       <c r="D15" s="140" t="s">
         <v>59</v>
       </c>
@@ -3425,123 +3440,123 @@
       <c r="F15" s="140" t="s">
         <v>60</v>
       </c>
-      <c r="G15" s="156"/>
-      <c r="H15" s="154" t="s">
+      <c r="G15" s="155"/>
+      <c r="H15" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="I15" s="155"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="148"/>
+      <c r="I15" s="147"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="150"/>
     </row>
     <row r="16" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A16" s="128" t="s">
+      <c r="A16" s="126" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="136"/>
-      <c r="C16" s="137"/>
+      <c r="B16" s="131"/>
+      <c r="C16" s="132"/>
       <c r="D16" s="142"/>
       <c r="E16" s="143"/>
-      <c r="F16" s="157"/>
-      <c r="G16" s="158"/>
-      <c r="H16" s="128" t="s">
+      <c r="F16" s="156"/>
+      <c r="G16" s="157"/>
+      <c r="H16" s="126" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="128" t="s">
+      <c r="I16" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="J16" s="128" t="s">
+      <c r="J16" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="K16" s="149"/>
+      <c r="K16" s="151"/>
     </row>
     <row r="17" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A17" s="51" t="s">
+      <c r="A17" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="136"/>
-      <c r="C17" s="137"/>
+      <c r="B17" s="131"/>
+      <c r="C17" s="132"/>
       <c r="D17" s="142"/>
       <c r="E17" s="143"/>
-      <c r="F17" s="157"/>
-      <c r="G17" s="158"/>
-      <c r="H17" s="52" t="s">
+      <c r="F17" s="156"/>
+      <c r="G17" s="157"/>
+      <c r="H17" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="I17" s="52"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="149"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="151"/>
     </row>
     <row r="18" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A18" s="128" t="s">
+      <c r="A18" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="136"/>
-      <c r="C18" s="137"/>
+      <c r="B18" s="131"/>
+      <c r="C18" s="132"/>
       <c r="D18" s="142"/>
       <c r="E18" s="143"/>
-      <c r="F18" s="157"/>
-      <c r="G18" s="158"/>
-      <c r="H18" s="128" t="s">
+      <c r="F18" s="156"/>
+      <c r="G18" s="157"/>
+      <c r="H18" s="126" t="s">
         <v>30</v>
       </c>
-      <c r="I18" s="128" t="s">
+      <c r="I18" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="J18" s="128"/>
-      <c r="K18" s="149"/>
+      <c r="J18" s="126"/>
+      <c r="K18" s="151"/>
     </row>
     <row r="19" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A19" s="53">
+      <c r="A19" s="51">
         <v>902</v>
       </c>
-      <c r="B19" s="138"/>
-      <c r="C19" s="139"/>
+      <c r="B19" s="133"/>
+      <c r="C19" s="134"/>
       <c r="D19" s="144"/>
       <c r="E19" s="145"/>
-      <c r="F19" s="159"/>
-      <c r="G19" s="160"/>
-      <c r="H19" s="52">
+      <c r="F19" s="158"/>
+      <c r="G19" s="159"/>
+      <c r="H19" s="50">
         <v>43381</v>
       </c>
-      <c r="I19" s="52"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="149"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="151"/>
     </row>
     <row r="20" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="131" t="s">
+      <c r="B20" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="132"/>
-      <c r="D20" s="131" t="s">
+      <c r="C20" s="137"/>
+      <c r="D20" s="136" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="132"/>
-      <c r="F20" s="131" t="s">
+      <c r="E20" s="137"/>
+      <c r="F20" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="132"/>
-      <c r="H20" s="133" t="s">
+      <c r="G20" s="137"/>
+      <c r="H20" s="135" t="s">
         <v>23</v>
       </c>
-      <c r="I20" s="133"/>
-      <c r="J20" s="128" t="s">
+      <c r="I20" s="135"/>
+      <c r="J20" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="K20" s="58" t="s">
+      <c r="K20" s="56" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A21" s="50">
+      <c r="A21" s="48">
         <v>3</v>
       </c>
-      <c r="B21" s="134" t="s">
+      <c r="B21" s="129" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="135"/>
+      <c r="C21" s="130"/>
       <c r="D21" s="140" t="s">
         <v>61</v>
       </c>
@@ -3549,127 +3564,127 @@
       <c r="F21" s="140" t="s">
         <v>62</v>
       </c>
-      <c r="G21" s="156"/>
-      <c r="H21" s="154" t="s">
+      <c r="G21" s="155"/>
+      <c r="H21" s="146" t="s">
         <v>29</v>
       </c>
-      <c r="I21" s="155"/>
-      <c r="J21" s="54" t="s">
+      <c r="I21" s="147"/>
+      <c r="J21" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="K21" s="148" t="s">
+      <c r="K21" s="150" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="2" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A22" s="128" t="s">
+      <c r="A22" s="126" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="136"/>
-      <c r="C22" s="137"/>
+      <c r="B22" s="131"/>
+      <c r="C22" s="132"/>
       <c r="D22" s="142"/>
       <c r="E22" s="143"/>
-      <c r="F22" s="157"/>
-      <c r="G22" s="158"/>
-      <c r="H22" s="128" t="s">
+      <c r="F22" s="156"/>
+      <c r="G22" s="157"/>
+      <c r="H22" s="126" t="s">
         <v>28</v>
       </c>
-      <c r="I22" s="128" t="s">
+      <c r="I22" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="J22" s="128" t="s">
+      <c r="J22" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="K22" s="149"/>
+      <c r="K22" s="151"/>
     </row>
     <row r="23" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A23" s="51" t="s">
+      <c r="A23" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="136"/>
-      <c r="C23" s="137"/>
+      <c r="B23" s="131"/>
+      <c r="C23" s="132"/>
       <c r="D23" s="142"/>
       <c r="E23" s="143"/>
-      <c r="F23" s="157"/>
-      <c r="G23" s="158"/>
-      <c r="H23" s="52" t="s">
+      <c r="F23" s="156"/>
+      <c r="G23" s="157"/>
+      <c r="H23" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="I23" s="52"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="149"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="151"/>
     </row>
     <row r="24" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A24" s="128" t="s">
+      <c r="A24" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="136"/>
-      <c r="C24" s="137"/>
+      <c r="B24" s="131"/>
+      <c r="C24" s="132"/>
       <c r="D24" s="142"/>
       <c r="E24" s="143"/>
-      <c r="F24" s="157"/>
-      <c r="G24" s="158"/>
-      <c r="H24" s="128" t="s">
+      <c r="F24" s="156"/>
+      <c r="G24" s="157"/>
+      <c r="H24" s="126" t="s">
         <v>30</v>
       </c>
-      <c r="I24" s="128" t="s">
+      <c r="I24" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="J24" s="128"/>
-      <c r="K24" s="149"/>
+      <c r="J24" s="126"/>
+      <c r="K24" s="151"/>
     </row>
     <row r="25" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A25" s="53">
+      <c r="A25" s="51">
         <v>931</v>
       </c>
-      <c r="B25" s="138"/>
-      <c r="C25" s="139"/>
+      <c r="B25" s="133"/>
+      <c r="C25" s="134"/>
       <c r="D25" s="144"/>
       <c r="E25" s="145"/>
-      <c r="F25" s="159"/>
-      <c r="G25" s="160"/>
-      <c r="H25" s="52">
+      <c r="F25" s="158"/>
+      <c r="G25" s="159"/>
+      <c r="H25" s="50">
         <v>43381</v>
       </c>
-      <c r="I25" s="52"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="149"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="151"/>
     </row>
     <row r="26" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A26" s="57" t="s">
+      <c r="A26" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="131" t="s">
+      <c r="B26" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="132"/>
-      <c r="D26" s="131" t="s">
+      <c r="C26" s="137"/>
+      <c r="D26" s="136" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="132"/>
-      <c r="F26" s="131" t="s">
+      <c r="E26" s="137"/>
+      <c r="F26" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="G26" s="132"/>
-      <c r="H26" s="133" t="s">
+      <c r="G26" s="137"/>
+      <c r="H26" s="135" t="s">
         <v>23</v>
       </c>
-      <c r="I26" s="133"/>
-      <c r="J26" s="59" t="s">
+      <c r="I26" s="135"/>
+      <c r="J26" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="K26" s="58" t="s">
+      <c r="K26" s="56" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A27" s="50">
+      <c r="A27" s="48">
         <v>4</v>
       </c>
-      <c r="B27" s="134" t="s">
+      <c r="B27" s="129" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="135"/>
+      <c r="C27" s="130"/>
       <c r="D27" s="140" t="s">
         <v>63</v>
       </c>
@@ -3677,124 +3692,124 @@
       <c r="F27" s="140" t="s">
         <v>64</v>
       </c>
-      <c r="G27" s="156"/>
-      <c r="H27" s="154" t="s">
+      <c r="G27" s="155"/>
+      <c r="H27" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="I27" s="155"/>
-      <c r="J27" s="54"/>
-      <c r="K27" s="148"/>
+      <c r="I27" s="147"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="150"/>
     </row>
     <row r="28" spans="1:11" s="2" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A28" s="59" t="s">
+      <c r="A28" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="136"/>
-      <c r="C28" s="137"/>
+      <c r="B28" s="131"/>
+      <c r="C28" s="132"/>
       <c r="D28" s="142"/>
       <c r="E28" s="143"/>
-      <c r="F28" s="157"/>
-      <c r="G28" s="158"/>
-      <c r="H28" s="59" t="s">
+      <c r="F28" s="156"/>
+      <c r="G28" s="157"/>
+      <c r="H28" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="I28" s="59" t="s">
+      <c r="I28" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="J28" s="59" t="s">
+      <c r="J28" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="K28" s="149"/>
+      <c r="K28" s="151"/>
     </row>
     <row r="29" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A29" s="51" t="s">
+      <c r="A29" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="B29" s="136"/>
-      <c r="C29" s="137"/>
+      <c r="B29" s="131"/>
+      <c r="C29" s="132"/>
       <c r="D29" s="142"/>
       <c r="E29" s="143"/>
-      <c r="F29" s="157"/>
-      <c r="G29" s="158"/>
-      <c r="H29" s="52" t="s">
+      <c r="F29" s="156"/>
+      <c r="G29" s="157"/>
+      <c r="H29" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="I29" s="52"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="149"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="151"/>
     </row>
     <row r="30" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A30" s="59" t="s">
+      <c r="A30" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="136"/>
-      <c r="C30" s="137"/>
+      <c r="B30" s="131"/>
+      <c r="C30" s="132"/>
       <c r="D30" s="142"/>
       <c r="E30" s="143"/>
-      <c r="F30" s="157"/>
-      <c r="G30" s="158"/>
-      <c r="H30" s="59" t="s">
+      <c r="F30" s="156"/>
+      <c r="G30" s="157"/>
+      <c r="H30" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="I30" s="59" t="s">
+      <c r="I30" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="J30" s="59"/>
-      <c r="K30" s="149"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="151"/>
     </row>
     <row r="31" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A31" s="53">
+      <c r="A31" s="51">
         <v>941</v>
       </c>
-      <c r="B31" s="138"/>
-      <c r="C31" s="139"/>
+      <c r="B31" s="133"/>
+      <c r="C31" s="134"/>
       <c r="D31" s="144"/>
       <c r="E31" s="145"/>
-      <c r="F31" s="159"/>
-      <c r="G31" s="160"/>
-      <c r="H31" s="52">
+      <c r="F31" s="158"/>
+      <c r="G31" s="159"/>
+      <c r="H31" s="50">
         <v>43381</v>
       </c>
-      <c r="I31" s="52"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="149"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="151"/>
     </row>
     <row r="32" spans="1:11" s="2" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A32" s="59" t="s">
+      <c r="A32" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="131" t="s">
+      <c r="B32" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="132"/>
-      <c r="D32" s="131" t="s">
+      <c r="C32" s="137"/>
+      <c r="D32" s="136" t="s">
         <v>52</v>
       </c>
-      <c r="E32" s="132"/>
-      <c r="F32" s="131" t="s">
+      <c r="E32" s="137"/>
+      <c r="F32" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="G32" s="132"/>
-      <c r="H32" s="133" t="s">
+      <c r="G32" s="137"/>
+      <c r="H32" s="135" t="s">
         <v>23</v>
       </c>
-      <c r="I32" s="133"/>
-      <c r="J32" s="59" t="s">
+      <c r="I32" s="135"/>
+      <c r="J32" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="K32" s="59" t="s">
+      <c r="K32" s="57" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A33" s="50">
+      <c r="A33" s="48">
         <f>A27+1</f>
         <v>5</v>
       </c>
-      <c r="B33" s="134" t="s">
+      <c r="B33" s="129" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="135"/>
+      <c r="C33" s="130"/>
       <c r="D33" s="140" t="s">
         <v>66</v>
       </c>
@@ -3803,129 +3818,129 @@
         <v>67</v>
       </c>
       <c r="G33" s="141"/>
-      <c r="H33" s="146" t="s">
+      <c r="H33" s="148" t="s">
         <v>29</v>
       </c>
-      <c r="I33" s="147"/>
-      <c r="J33" s="50" t="s">
+      <c r="I33" s="149"/>
+      <c r="J33" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="K33" s="148" t="s">
+      <c r="K33" s="150" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A34" s="59" t="s">
+      <c r="A34" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="136"/>
-      <c r="C34" s="137"/>
+      <c r="B34" s="131"/>
+      <c r="C34" s="132"/>
       <c r="D34" s="142"/>
       <c r="E34" s="143"/>
       <c r="F34" s="142"/>
       <c r="G34" s="143"/>
-      <c r="H34" s="59" t="s">
+      <c r="H34" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="I34" s="59" t="s">
+      <c r="I34" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="J34" s="59" t="s">
+      <c r="J34" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="K34" s="149"/>
+      <c r="K34" s="151"/>
     </row>
     <row r="35" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A35" s="51" t="s">
+      <c r="A35" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="B35" s="136"/>
-      <c r="C35" s="137"/>
+      <c r="B35" s="131"/>
+      <c r="C35" s="132"/>
       <c r="D35" s="142"/>
       <c r="E35" s="143"/>
       <c r="F35" s="142"/>
       <c r="G35" s="143"/>
-      <c r="H35" s="52" t="s">
+      <c r="H35" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="I35" s="52" t="s">
+      <c r="I35" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="J35" s="50"/>
-      <c r="K35" s="149"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="151"/>
     </row>
     <row r="36" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A36" s="59" t="s">
+      <c r="A36" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="136"/>
-      <c r="C36" s="137"/>
+      <c r="B36" s="131"/>
+      <c r="C36" s="132"/>
       <c r="D36" s="142"/>
       <c r="E36" s="143"/>
       <c r="F36" s="142"/>
       <c r="G36" s="143"/>
-      <c r="H36" s="59" t="s">
+      <c r="H36" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="I36" s="59" t="s">
+      <c r="I36" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="J36" s="59"/>
-      <c r="K36" s="149"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="151"/>
     </row>
     <row r="37" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A37" s="53">
+      <c r="A37" s="51">
         <v>922</v>
       </c>
-      <c r="B37" s="138"/>
-      <c r="C37" s="139"/>
+      <c r="B37" s="133"/>
+      <c r="C37" s="134"/>
       <c r="D37" s="144"/>
       <c r="E37" s="145"/>
       <c r="F37" s="144"/>
       <c r="G37" s="145"/>
-      <c r="H37" s="52">
+      <c r="H37" s="50">
         <v>43442</v>
       </c>
-      <c r="I37" s="52"/>
-      <c r="J37" s="50"/>
-      <c r="K37" s="150"/>
-    </row>
-    <row r="38" spans="1:11" s="62" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A38" s="128" t="s">
+      <c r="I37" s="50"/>
+      <c r="J37" s="48"/>
+      <c r="K37" s="152"/>
+    </row>
+    <row r="38" spans="1:11" s="60" customFormat="1" ht="10.5" customHeight="1">
+      <c r="A38" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="131" t="s">
+      <c r="B38" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="132"/>
-      <c r="D38" s="131" t="s">
+      <c r="C38" s="137"/>
+      <c r="D38" s="136" t="s">
         <v>52</v>
       </c>
-      <c r="E38" s="132"/>
-      <c r="F38" s="131" t="s">
+      <c r="E38" s="137"/>
+      <c r="F38" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="G38" s="132"/>
-      <c r="H38" s="133" t="s">
+      <c r="G38" s="137"/>
+      <c r="H38" s="135" t="s">
         <v>23</v>
       </c>
-      <c r="I38" s="133"/>
-      <c r="J38" s="128" t="s">
+      <c r="I38" s="135"/>
+      <c r="J38" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="K38" s="128" t="s">
+      <c r="K38" s="126" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="62" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A39" s="50">
+    <row r="39" spans="1:11" s="60" customFormat="1" ht="10.5" customHeight="1">
+      <c r="A39" s="48">
         <f>A33+1</f>
         <v>6</v>
       </c>
-      <c r="B39" s="134" t="s">
+      <c r="B39" s="129" t="s">
         <v>56</v>
       </c>
-      <c r="C39" s="135"/>
+      <c r="C39" s="130"/>
       <c r="D39" s="140" t="s">
         <v>78</v>
       </c>
@@ -3934,103 +3949,103 @@
         <v>79</v>
       </c>
       <c r="G39" s="141"/>
-      <c r="H39" s="146" t="s">
+      <c r="H39" s="148" t="s">
         <v>34</v>
       </c>
-      <c r="I39" s="147"/>
-      <c r="J39" s="50"/>
-      <c r="K39" s="148"/>
-    </row>
-    <row r="40" spans="1:11" s="62" customFormat="1">
-      <c r="A40" s="128" t="s">
+      <c r="I39" s="149"/>
+      <c r="J39" s="48"/>
+      <c r="K39" s="150"/>
+    </row>
+    <row r="40" spans="1:11" s="60" customFormat="1">
+      <c r="A40" s="126" t="s">
         <v>26</v>
       </c>
-      <c r="B40" s="136"/>
-      <c r="C40" s="137"/>
+      <c r="B40" s="131"/>
+      <c r="C40" s="132"/>
       <c r="D40" s="142"/>
       <c r="E40" s="143"/>
       <c r="F40" s="142"/>
       <c r="G40" s="143"/>
-      <c r="H40" s="128" t="s">
+      <c r="H40" s="126" t="s">
         <v>28</v>
       </c>
-      <c r="I40" s="128" t="s">
+      <c r="I40" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="J40" s="128" t="s">
+      <c r="J40" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="K40" s="149"/>
-    </row>
-    <row r="41" spans="1:11" s="62" customFormat="1">
-      <c r="A41" s="51" t="s">
+      <c r="K40" s="151"/>
+    </row>
+    <row r="41" spans="1:11" s="60" customFormat="1">
+      <c r="A41" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="B41" s="136"/>
-      <c r="C41" s="137"/>
+      <c r="B41" s="131"/>
+      <c r="C41" s="132"/>
       <c r="D41" s="142"/>
       <c r="E41" s="143"/>
       <c r="F41" s="142"/>
       <c r="G41" s="143"/>
-      <c r="H41" s="52" t="s">
+      <c r="H41" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="I41" s="52"/>
-      <c r="J41" s="50"/>
-      <c r="K41" s="149"/>
-    </row>
-    <row r="42" spans="1:11" s="62" customFormat="1">
-      <c r="A42" s="128" t="s">
+      <c r="I41" s="50"/>
+      <c r="J41" s="48"/>
+      <c r="K41" s="151"/>
+    </row>
+    <row r="42" spans="1:11" s="60" customFormat="1">
+      <c r="A42" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="136"/>
-      <c r="C42" s="137"/>
+      <c r="B42" s="131"/>
+      <c r="C42" s="132"/>
       <c r="D42" s="142"/>
       <c r="E42" s="143"/>
       <c r="F42" s="142"/>
       <c r="G42" s="143"/>
-      <c r="H42" s="128" t="s">
+      <c r="H42" s="126" t="s">
         <v>30</v>
       </c>
-      <c r="I42" s="128" t="s">
+      <c r="I42" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="J42" s="128"/>
-      <c r="K42" s="149"/>
-    </row>
-    <row r="43" spans="1:11" s="62" customFormat="1" ht="21" customHeight="1">
-      <c r="A43" s="53">
+      <c r="J42" s="126"/>
+      <c r="K42" s="151"/>
+    </row>
+    <row r="43" spans="1:11" s="60" customFormat="1" ht="21" customHeight="1">
+      <c r="A43" s="51">
         <v>952</v>
       </c>
-      <c r="B43" s="138"/>
-      <c r="C43" s="139"/>
+      <c r="B43" s="133"/>
+      <c r="C43" s="134"/>
       <c r="D43" s="144"/>
       <c r="E43" s="145"/>
       <c r="F43" s="144"/>
       <c r="G43" s="145"/>
-      <c r="H43" s="52">
+      <c r="H43" s="50">
         <v>43412</v>
       </c>
-      <c r="I43" s="52"/>
-      <c r="J43" s="50"/>
-      <c r="K43" s="150"/>
-    </row>
-    <row r="44" spans="1:11" s="62" customFormat="1">
+      <c r="I43" s="50"/>
+      <c r="J43" s="48"/>
+      <c r="K43" s="152"/>
+    </row>
+    <row r="44" spans="1:11" s="60" customFormat="1">
       <c r="A44" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="151" t="s">
+      <c r="B44" s="138" t="s">
         <v>21</v>
       </c>
-      <c r="C44" s="152"/>
-      <c r="D44" s="151" t="s">
+      <c r="C44" s="139"/>
+      <c r="D44" s="138" t="s">
         <v>52</v>
       </c>
-      <c r="E44" s="152"/>
-      <c r="F44" s="151" t="s">
+      <c r="E44" s="139"/>
+      <c r="F44" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="G44" s="152"/>
+      <c r="G44" s="139"/>
       <c r="H44" s="153" t="s">
         <v>23</v>
       </c>
@@ -4038,18 +4053,18 @@
       <c r="J44" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="K44" s="60" t="s">
+      <c r="K44" s="58" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="62" customFormat="1">
-      <c r="A45" s="50">
+    <row r="45" spans="1:11" s="60" customFormat="1">
+      <c r="A45" s="48">
         <v>7</v>
       </c>
-      <c r="B45" s="134" t="s">
+      <c r="B45" s="129" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="135"/>
+      <c r="C45" s="130"/>
       <c r="D45" s="140" t="s">
         <v>68</v>
       </c>
@@ -4058,19 +4073,19 @@
         <v>69</v>
       </c>
       <c r="G45" s="141"/>
-      <c r="H45" s="154" t="s">
+      <c r="H45" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="I45" s="155"/>
-      <c r="J45" s="54"/>
-      <c r="K45" s="148"/>
-    </row>
-    <row r="46" spans="1:11" s="62" customFormat="1">
+      <c r="I45" s="147"/>
+      <c r="J45" s="52"/>
+      <c r="K45" s="150"/>
+    </row>
+    <row r="46" spans="1:11" s="60" customFormat="1">
       <c r="A46" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="B46" s="136"/>
-      <c r="C46" s="137"/>
+      <c r="B46" s="131"/>
+      <c r="C46" s="132"/>
       <c r="D46" s="142"/>
       <c r="E46" s="143"/>
       <c r="F46" s="142"/>
@@ -4084,31 +4099,31 @@
       <c r="J46" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="K46" s="149"/>
-    </row>
-    <row r="47" spans="1:11" s="62" customFormat="1">
-      <c r="A47" s="51" t="s">
+      <c r="K46" s="151"/>
+    </row>
+    <row r="47" spans="1:11" s="60" customFormat="1">
+      <c r="A47" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="B47" s="136"/>
-      <c r="C47" s="137"/>
+      <c r="B47" s="131"/>
+      <c r="C47" s="132"/>
       <c r="D47" s="142"/>
       <c r="E47" s="143"/>
       <c r="F47" s="142"/>
       <c r="G47" s="143"/>
-      <c r="H47" s="52" t="s">
+      <c r="H47" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="I47" s="52"/>
-      <c r="J47" s="50"/>
-      <c r="K47" s="149"/>
-    </row>
-    <row r="48" spans="1:11" s="62" customFormat="1">
+      <c r="I47" s="50"/>
+      <c r="J47" s="48"/>
+      <c r="K47" s="151"/>
+    </row>
+    <row r="48" spans="1:11" s="60" customFormat="1">
       <c r="A48" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B48" s="136"/>
-      <c r="C48" s="137"/>
+      <c r="B48" s="131"/>
+      <c r="C48" s="132"/>
       <c r="D48" s="142"/>
       <c r="E48" s="143"/>
       <c r="F48" s="142"/>
@@ -4120,60 +4135,60 @@
         <v>27</v>
       </c>
       <c r="J48" s="47"/>
-      <c r="K48" s="149"/>
-    </row>
-    <row r="49" spans="1:11" s="62" customFormat="1" ht="21" customHeight="1">
-      <c r="A49" s="53">
+      <c r="K48" s="151"/>
+    </row>
+    <row r="49" spans="1:11" s="60" customFormat="1" ht="21" customHeight="1">
+      <c r="A49" s="51">
         <v>823</v>
       </c>
-      <c r="B49" s="138"/>
-      <c r="C49" s="139"/>
+      <c r="B49" s="133"/>
+      <c r="C49" s="134"/>
       <c r="D49" s="144"/>
       <c r="E49" s="145"/>
       <c r="F49" s="144"/>
       <c r="G49" s="145"/>
-      <c r="H49" s="52">
+      <c r="H49" s="50">
         <v>43381</v>
       </c>
-      <c r="I49" s="52"/>
-      <c r="J49" s="50"/>
-      <c r="K49" s="150"/>
-    </row>
-    <row r="50" spans="1:11" s="62" customFormat="1">
-      <c r="A50" s="120" t="s">
+      <c r="I49" s="50"/>
+      <c r="J49" s="48"/>
+      <c r="K49" s="152"/>
+    </row>
+    <row r="50" spans="1:11" s="60" customFormat="1">
+      <c r="A50" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="B50" s="151" t="s">
+      <c r="B50" s="138" t="s">
         <v>21</v>
       </c>
-      <c r="C50" s="152"/>
-      <c r="D50" s="151" t="s">
+      <c r="C50" s="139"/>
+      <c r="D50" s="138" t="s">
         <v>52</v>
       </c>
-      <c r="E50" s="152"/>
-      <c r="F50" s="151" t="s">
+      <c r="E50" s="139"/>
+      <c r="F50" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="G50" s="152"/>
+      <c r="G50" s="139"/>
       <c r="H50" s="153" t="s">
         <v>23</v>
       </c>
       <c r="I50" s="153"/>
-      <c r="J50" s="120" t="s">
+      <c r="J50" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="K50" s="121" t="s">
+      <c r="K50" s="119" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="62" customFormat="1">
-      <c r="A51" s="50">
+    <row r="51" spans="1:11" s="60" customFormat="1">
+      <c r="A51" s="48">
         <v>8</v>
       </c>
-      <c r="B51" s="134" t="s">
+      <c r="B51" s="129" t="s">
         <v>70</v>
       </c>
-      <c r="C51" s="135"/>
+      <c r="C51" s="130"/>
       <c r="D51" s="140" t="s">
         <v>71</v>
       </c>
@@ -4182,122 +4197,122 @@
         <v>72</v>
       </c>
       <c r="G51" s="141"/>
-      <c r="H51" s="154" t="s">
+      <c r="H51" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="I51" s="155"/>
-      <c r="J51" s="54"/>
-      <c r="K51" s="148"/>
-    </row>
-    <row r="52" spans="1:11" s="62" customFormat="1">
-      <c r="A52" s="120" t="s">
+      <c r="I51" s="147"/>
+      <c r="J51" s="52"/>
+      <c r="K51" s="150"/>
+    </row>
+    <row r="52" spans="1:11" s="60" customFormat="1">
+      <c r="A52" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="B52" s="136"/>
-      <c r="C52" s="137"/>
+      <c r="B52" s="131"/>
+      <c r="C52" s="132"/>
       <c r="D52" s="142"/>
       <c r="E52" s="143"/>
       <c r="F52" s="142"/>
       <c r="G52" s="143"/>
-      <c r="H52" s="120" t="s">
+      <c r="H52" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="I52" s="120" t="s">
+      <c r="I52" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="J52" s="120" t="s">
+      <c r="J52" s="118" t="s">
         <v>31</v>
       </c>
-      <c r="K52" s="149"/>
-    </row>
-    <row r="53" spans="1:11" s="62" customFormat="1">
-      <c r="A53" s="51" t="s">
+      <c r="K52" s="151"/>
+    </row>
+    <row r="53" spans="1:11" s="60" customFormat="1">
+      <c r="A53" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="B53" s="136"/>
-      <c r="C53" s="137"/>
+      <c r="B53" s="131"/>
+      <c r="C53" s="132"/>
       <c r="D53" s="142"/>
       <c r="E53" s="143"/>
       <c r="F53" s="142"/>
       <c r="G53" s="143"/>
-      <c r="H53" s="52" t="s">
+      <c r="H53" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="I53" s="52"/>
-      <c r="J53" s="50"/>
-      <c r="K53" s="149"/>
-    </row>
-    <row r="54" spans="1:11" s="62" customFormat="1">
-      <c r="A54" s="120" t="s">
+      <c r="I53" s="50"/>
+      <c r="J53" s="48"/>
+      <c r="K53" s="151"/>
+    </row>
+    <row r="54" spans="1:11" s="60" customFormat="1">
+      <c r="A54" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="B54" s="136"/>
-      <c r="C54" s="137"/>
+      <c r="B54" s="131"/>
+      <c r="C54" s="132"/>
       <c r="D54" s="142"/>
       <c r="E54" s="143"/>
       <c r="F54" s="142"/>
       <c r="G54" s="143"/>
-      <c r="H54" s="120" t="s">
+      <c r="H54" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="I54" s="120" t="s">
+      <c r="I54" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="J54" s="120"/>
-      <c r="K54" s="149"/>
-    </row>
-    <row r="55" spans="1:11" s="62" customFormat="1">
-      <c r="A55" s="53">
+      <c r="J54" s="118"/>
+      <c r="K54" s="151"/>
+    </row>
+    <row r="55" spans="1:11" s="60" customFormat="1">
+      <c r="A55" s="51">
         <v>824</v>
       </c>
-      <c r="B55" s="138"/>
-      <c r="C55" s="139"/>
+      <c r="B55" s="133"/>
+      <c r="C55" s="134"/>
       <c r="D55" s="144"/>
       <c r="E55" s="145"/>
       <c r="F55" s="144"/>
       <c r="G55" s="145"/>
-      <c r="H55" s="52">
+      <c r="H55" s="50">
         <v>43443</v>
       </c>
-      <c r="I55" s="52"/>
-      <c r="J55" s="50"/>
-      <c r="K55" s="150"/>
-    </row>
-    <row r="56" spans="1:11" s="62" customFormat="1">
-      <c r="A56" s="120" t="s">
+      <c r="I55" s="50"/>
+      <c r="J55" s="48"/>
+      <c r="K55" s="152"/>
+    </row>
+    <row r="56" spans="1:11" s="60" customFormat="1">
+      <c r="A56" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="B56" s="151" t="s">
+      <c r="B56" s="138" t="s">
         <v>21</v>
       </c>
-      <c r="C56" s="152"/>
-      <c r="D56" s="151" t="s">
+      <c r="C56" s="139"/>
+      <c r="D56" s="138" t="s">
         <v>52</v>
       </c>
-      <c r="E56" s="152"/>
-      <c r="F56" s="151" t="s">
+      <c r="E56" s="139"/>
+      <c r="F56" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="G56" s="152"/>
+      <c r="G56" s="139"/>
       <c r="H56" s="153" t="s">
         <v>23</v>
       </c>
       <c r="I56" s="153"/>
-      <c r="J56" s="120" t="s">
+      <c r="J56" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="K56" s="121" t="s">
+      <c r="K56" s="119" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:11" s="62" customFormat="1">
-      <c r="A57" s="50">
+    <row r="57" spans="1:11" s="60" customFormat="1">
+      <c r="A57" s="48">
         <v>9</v>
       </c>
-      <c r="B57" s="134" t="s">
+      <c r="B57" s="129" t="s">
         <v>70</v>
       </c>
-      <c r="C57" s="135"/>
+      <c r="C57" s="130"/>
       <c r="D57" s="140" t="s">
         <v>73</v>
       </c>
@@ -4306,128 +4321,128 @@
         <v>72</v>
       </c>
       <c r="G57" s="141"/>
-      <c r="H57" s="154" t="s">
+      <c r="H57" s="146" t="s">
         <v>29</v>
       </c>
-      <c r="I57" s="155"/>
-      <c r="J57" s="54" t="s">
+      <c r="I57" s="147"/>
+      <c r="J57" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="K57" s="148" t="s">
+      <c r="K57" s="150" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="62" customFormat="1">
-      <c r="A58" s="120" t="s">
+    <row r="58" spans="1:11" s="60" customFormat="1">
+      <c r="A58" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="B58" s="136"/>
-      <c r="C58" s="137"/>
+      <c r="B58" s="131"/>
+      <c r="C58" s="132"/>
       <c r="D58" s="142"/>
       <c r="E58" s="143"/>
       <c r="F58" s="142"/>
       <c r="G58" s="143"/>
-      <c r="H58" s="120" t="s">
+      <c r="H58" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="I58" s="120" t="s">
+      <c r="I58" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="J58" s="120" t="s">
+      <c r="J58" s="118" t="s">
         <v>31</v>
       </c>
-      <c r="K58" s="149"/>
-    </row>
-    <row r="59" spans="1:11" s="62" customFormat="1">
-      <c r="A59" s="51" t="s">
+      <c r="K58" s="151"/>
+    </row>
+    <row r="59" spans="1:11" s="60" customFormat="1">
+      <c r="A59" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="B59" s="136"/>
-      <c r="C59" s="137"/>
+      <c r="B59" s="131"/>
+      <c r="C59" s="132"/>
       <c r="D59" s="142"/>
       <c r="E59" s="143"/>
       <c r="F59" s="142"/>
       <c r="G59" s="143"/>
-      <c r="H59" s="52" t="s">
+      <c r="H59" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="I59" s="52" t="s">
+      <c r="I59" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="J59" s="50"/>
-      <c r="K59" s="149"/>
-    </row>
-    <row r="60" spans="1:11" s="62" customFormat="1">
-      <c r="A60" s="120" t="s">
+      <c r="J59" s="48"/>
+      <c r="K59" s="151"/>
+    </row>
+    <row r="60" spans="1:11" s="60" customFormat="1">
+      <c r="A60" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="B60" s="136"/>
-      <c r="C60" s="137"/>
+      <c r="B60" s="131"/>
+      <c r="C60" s="132"/>
       <c r="D60" s="142"/>
       <c r="E60" s="143"/>
       <c r="F60" s="142"/>
       <c r="G60" s="143"/>
-      <c r="H60" s="120" t="s">
+      <c r="H60" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="I60" s="120" t="s">
+      <c r="I60" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="J60" s="120"/>
-      <c r="K60" s="149"/>
-    </row>
-    <row r="61" spans="1:11" s="62" customFormat="1">
-      <c r="A61" s="53">
+      <c r="J60" s="118"/>
+      <c r="K60" s="151"/>
+    </row>
+    <row r="61" spans="1:11" s="60" customFormat="1">
+      <c r="A61" s="51">
         <v>827</v>
       </c>
-      <c r="B61" s="138"/>
-      <c r="C61" s="139"/>
+      <c r="B61" s="133"/>
+      <c r="C61" s="134"/>
       <c r="D61" s="144"/>
       <c r="E61" s="145"/>
       <c r="F61" s="144"/>
       <c r="G61" s="145"/>
-      <c r="H61" s="52">
+      <c r="H61" s="50">
         <v>43351</v>
       </c>
-      <c r="I61" s="52"/>
-      <c r="J61" s="50"/>
-      <c r="K61" s="150"/>
-    </row>
-    <row r="62" spans="1:11" s="62" customFormat="1">
-      <c r="A62" s="120" t="s">
+      <c r="I61" s="50"/>
+      <c r="J61" s="48"/>
+      <c r="K61" s="152"/>
+    </row>
+    <row r="62" spans="1:11" s="60" customFormat="1">
+      <c r="A62" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="B62" s="151" t="s">
+      <c r="B62" s="138" t="s">
         <v>21</v>
       </c>
-      <c r="C62" s="152"/>
-      <c r="D62" s="151" t="s">
+      <c r="C62" s="139"/>
+      <c r="D62" s="138" t="s">
         <v>52</v>
       </c>
-      <c r="E62" s="152"/>
-      <c r="F62" s="151" t="s">
+      <c r="E62" s="139"/>
+      <c r="F62" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="G62" s="152"/>
+      <c r="G62" s="139"/>
       <c r="H62" s="153" t="s">
         <v>23</v>
       </c>
       <c r="I62" s="153"/>
-      <c r="J62" s="120" t="s">
+      <c r="J62" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="K62" s="121" t="s">
+      <c r="K62" s="119" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:11" s="62" customFormat="1">
-      <c r="A63" s="50">
+    <row r="63" spans="1:11" s="60" customFormat="1">
+      <c r="A63" s="48">
         <v>10</v>
       </c>
-      <c r="B63" s="134" t="s">
+      <c r="B63" s="129" t="s">
         <v>70</v>
       </c>
-      <c r="C63" s="135"/>
+      <c r="C63" s="130"/>
       <c r="D63" s="140" t="s">
         <v>75</v>
       </c>
@@ -4436,103 +4451,103 @@
         <v>74</v>
       </c>
       <c r="G63" s="141"/>
-      <c r="H63" s="154" t="s">
+      <c r="H63" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="I63" s="155"/>
-      <c r="J63" s="54"/>
-      <c r="K63" s="148"/>
-    </row>
-    <row r="64" spans="1:11" s="62" customFormat="1">
-      <c r="A64" s="120" t="s">
+      <c r="I63" s="147"/>
+      <c r="J63" s="52"/>
+      <c r="K63" s="150"/>
+    </row>
+    <row r="64" spans="1:11" s="60" customFormat="1">
+      <c r="A64" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="B64" s="136"/>
-      <c r="C64" s="137"/>
+      <c r="B64" s="131"/>
+      <c r="C64" s="132"/>
       <c r="D64" s="142"/>
       <c r="E64" s="143"/>
       <c r="F64" s="142"/>
       <c r="G64" s="143"/>
-      <c r="H64" s="120" t="s">
+      <c r="H64" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="I64" s="120" t="s">
+      <c r="I64" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="J64" s="120" t="s">
+      <c r="J64" s="118" t="s">
         <v>31</v>
       </c>
-      <c r="K64" s="149"/>
-    </row>
-    <row r="65" spans="1:11" s="62" customFormat="1">
-      <c r="A65" s="51" t="s">
+      <c r="K64" s="151"/>
+    </row>
+    <row r="65" spans="1:11" s="60" customFormat="1">
+      <c r="A65" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="B65" s="136"/>
-      <c r="C65" s="137"/>
+      <c r="B65" s="131"/>
+      <c r="C65" s="132"/>
       <c r="D65" s="142"/>
       <c r="E65" s="143"/>
       <c r="F65" s="142"/>
       <c r="G65" s="143"/>
-      <c r="H65" s="52" t="s">
+      <c r="H65" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="I65" s="52"/>
-      <c r="J65" s="50"/>
-      <c r="K65" s="149"/>
-    </row>
-    <row r="66" spans="1:11" s="62" customFormat="1">
-      <c r="A66" s="120" t="s">
+      <c r="I65" s="50"/>
+      <c r="J65" s="48"/>
+      <c r="K65" s="151"/>
+    </row>
+    <row r="66" spans="1:11" s="60" customFormat="1">
+      <c r="A66" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="B66" s="136"/>
-      <c r="C66" s="137"/>
+      <c r="B66" s="131"/>
+      <c r="C66" s="132"/>
       <c r="D66" s="142"/>
       <c r="E66" s="143"/>
       <c r="F66" s="142"/>
       <c r="G66" s="143"/>
-      <c r="H66" s="120" t="s">
+      <c r="H66" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="I66" s="120" t="s">
+      <c r="I66" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="J66" s="120"/>
-      <c r="K66" s="149"/>
-    </row>
-    <row r="67" spans="1:11" s="62" customFormat="1">
-      <c r="A67" s="53">
+      <c r="J66" s="118"/>
+      <c r="K66" s="151"/>
+    </row>
+    <row r="67" spans="1:11" s="60" customFormat="1">
+      <c r="A67" s="51">
         <v>831</v>
       </c>
-      <c r="B67" s="138"/>
-      <c r="C67" s="139"/>
+      <c r="B67" s="133"/>
+      <c r="C67" s="134"/>
       <c r="D67" s="144"/>
       <c r="E67" s="145"/>
       <c r="F67" s="144"/>
       <c r="G67" s="145"/>
-      <c r="H67" s="52" t="s">
+      <c r="H67" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="I67" s="52"/>
-      <c r="J67" s="50"/>
-      <c r="K67" s="150"/>
-    </row>
-    <row r="68" spans="1:11" s="62" customFormat="1">
+      <c r="I67" s="50"/>
+      <c r="J67" s="48"/>
+      <c r="K67" s="152"/>
+    </row>
+    <row r="68" spans="1:11" s="60" customFormat="1">
       <c r="A68" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="B68" s="151" t="s">
+      <c r="B68" s="138" t="s">
         <v>21</v>
       </c>
-      <c r="C68" s="152"/>
-      <c r="D68" s="151" t="s">
+      <c r="C68" s="139"/>
+      <c r="D68" s="138" t="s">
         <v>52</v>
       </c>
-      <c r="E68" s="152"/>
-      <c r="F68" s="151" t="s">
+      <c r="E68" s="139"/>
+      <c r="F68" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="G68" s="152"/>
+      <c r="G68" s="139"/>
       <c r="H68" s="153" t="s">
         <v>23</v>
       </c>
@@ -4540,18 +4555,18 @@
       <c r="J68" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="K68" s="60" t="s">
+      <c r="K68" s="58" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:11" s="62" customFormat="1">
-      <c r="A69" s="50">
+    <row r="69" spans="1:11" s="60" customFormat="1">
+      <c r="A69" s="48">
         <v>11</v>
       </c>
-      <c r="B69" s="134" t="s">
+      <c r="B69" s="129" t="s">
         <v>70</v>
       </c>
-      <c r="C69" s="135"/>
+      <c r="C69" s="130"/>
       <c r="D69" s="140" t="s">
         <v>76</v>
       </c>
@@ -4560,23 +4575,23 @@
         <v>77</v>
       </c>
       <c r="G69" s="141"/>
-      <c r="H69" s="154" t="s">
+      <c r="H69" s="146" t="s">
         <v>29</v>
       </c>
-      <c r="I69" s="155"/>
-      <c r="J69" s="54" t="s">
+      <c r="I69" s="147"/>
+      <c r="J69" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="K69" s="148" t="s">
+      <c r="K69" s="150" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="70" spans="1:11" s="62" customFormat="1">
+    <row r="70" spans="1:11" s="60" customFormat="1">
       <c r="A70" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="B70" s="136"/>
-      <c r="C70" s="137"/>
+      <c r="B70" s="131"/>
+      <c r="C70" s="132"/>
       <c r="D70" s="142"/>
       <c r="E70" s="143"/>
       <c r="F70" s="142"/>
@@ -4590,33 +4605,33 @@
       <c r="J70" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="K70" s="149"/>
-    </row>
-    <row r="71" spans="1:11" s="62" customFormat="1">
-      <c r="A71" s="51" t="s">
+      <c r="K70" s="151"/>
+    </row>
+    <row r="71" spans="1:11" s="60" customFormat="1">
+      <c r="A71" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="B71" s="136"/>
-      <c r="C71" s="137"/>
+      <c r="B71" s="131"/>
+      <c r="C71" s="132"/>
       <c r="D71" s="142"/>
       <c r="E71" s="143"/>
       <c r="F71" s="142"/>
       <c r="G71" s="143"/>
-      <c r="H71" s="52" t="s">
+      <c r="H71" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="I71" s="52" t="s">
+      <c r="I71" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="J71" s="50"/>
-      <c r="K71" s="149"/>
-    </row>
-    <row r="72" spans="1:11" s="62" customFormat="1">
+      <c r="J71" s="48"/>
+      <c r="K71" s="151"/>
+    </row>
+    <row r="72" spans="1:11" s="60" customFormat="1">
       <c r="A72" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B72" s="136"/>
-      <c r="C72" s="137"/>
+      <c r="B72" s="131"/>
+      <c r="C72" s="132"/>
       <c r="D72" s="142"/>
       <c r="E72" s="143"/>
       <c r="F72" s="142"/>
@@ -4628,655 +4643,709 @@
         <v>27</v>
       </c>
       <c r="J72" s="47"/>
-      <c r="K72" s="149"/>
-    </row>
-    <row r="73" spans="1:11" s="62" customFormat="1">
-      <c r="A73" s="53">
+      <c r="K72" s="151"/>
+    </row>
+    <row r="73" spans="1:11" s="60" customFormat="1">
+      <c r="A73" s="51">
         <v>898</v>
       </c>
-      <c r="B73" s="138"/>
-      <c r="C73" s="139"/>
+      <c r="B73" s="133"/>
+      <c r="C73" s="134"/>
       <c r="D73" s="144"/>
       <c r="E73" s="145"/>
       <c r="F73" s="144"/>
       <c r="G73" s="145"/>
-      <c r="H73" s="52" t="s">
+      <c r="H73" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="I73" s="52"/>
-      <c r="J73" s="50"/>
-      <c r="K73" s="150"/>
-    </row>
-    <row r="74" spans="1:11" s="62" customFormat="1">
-      <c r="A74" s="66"/>
-      <c r="H74" s="66"/>
-      <c r="I74" s="66"/>
-      <c r="J74" s="66"/>
-      <c r="K74" s="66"/>
-    </row>
-    <row r="75" spans="1:11" s="62" customFormat="1">
-      <c r="A75" s="66"/>
-      <c r="H75" s="66"/>
-      <c r="I75" s="66"/>
-      <c r="J75" s="66"/>
-      <c r="K75" s="66"/>
-    </row>
-    <row r="76" spans="1:11" s="62" customFormat="1">
-      <c r="A76" s="66"/>
-      <c r="H76" s="66"/>
-      <c r="I76" s="66"/>
-      <c r="J76" s="66"/>
-      <c r="K76" s="66"/>
-    </row>
-    <row r="77" spans="1:11" s="62" customFormat="1">
-      <c r="A77" s="66"/>
-      <c r="H77" s="66"/>
-      <c r="I77" s="66"/>
-      <c r="J77" s="66"/>
-      <c r="K77" s="66"/>
-    </row>
-    <row r="78" spans="1:11" s="62" customFormat="1">
-      <c r="A78" s="66"/>
-      <c r="H78" s="66"/>
-      <c r="I78" s="66"/>
-      <c r="J78" s="66"/>
-      <c r="K78" s="66"/>
-    </row>
-    <row r="79" spans="1:11" s="62" customFormat="1">
-      <c r="A79" s="66"/>
-      <c r="H79" s="66"/>
-      <c r="I79" s="66"/>
-      <c r="J79" s="66"/>
-      <c r="K79" s="66"/>
-    </row>
-    <row r="80" spans="1:11" s="62" customFormat="1">
-      <c r="A80" s="66"/>
-      <c r="H80" s="66"/>
-      <c r="I80" s="66"/>
-      <c r="J80" s="66"/>
-      <c r="K80" s="66"/>
-    </row>
-    <row r="81" spans="1:11" s="62" customFormat="1">
-      <c r="A81" s="66"/>
-      <c r="H81" s="66"/>
-      <c r="I81" s="66"/>
-      <c r="J81" s="66"/>
-      <c r="K81" s="66"/>
-    </row>
-    <row r="82" spans="1:11" s="62" customFormat="1">
-      <c r="A82" s="66"/>
-      <c r="H82" s="66"/>
-      <c r="I82" s="66"/>
-      <c r="J82" s="66"/>
-      <c r="K82" s="66"/>
-    </row>
-    <row r="83" spans="1:11" s="62" customFormat="1">
-      <c r="A83" s="66"/>
-      <c r="H83" s="66"/>
-      <c r="I83" s="66"/>
-      <c r="J83" s="66"/>
-      <c r="K83" s="66"/>
-    </row>
-    <row r="84" spans="1:11" s="62" customFormat="1">
-      <c r="A84" s="66"/>
-      <c r="H84" s="66"/>
-      <c r="I84" s="66"/>
-      <c r="J84" s="66"/>
-      <c r="K84" s="66"/>
-    </row>
-    <row r="85" spans="1:11" s="62" customFormat="1">
-      <c r="A85" s="66"/>
-      <c r="H85" s="66"/>
-      <c r="I85" s="66"/>
-      <c r="J85" s="66"/>
-      <c r="K85" s="66"/>
-    </row>
-    <row r="86" spans="1:11" s="62" customFormat="1">
-      <c r="A86" s="66"/>
-      <c r="H86" s="66"/>
-      <c r="I86" s="66"/>
-      <c r="J86" s="66"/>
-      <c r="K86" s="66"/>
-    </row>
-    <row r="87" spans="1:11" s="62" customFormat="1">
-      <c r="A87" s="66"/>
-      <c r="H87" s="66"/>
-      <c r="I87" s="66"/>
-      <c r="J87" s="66"/>
-      <c r="K87" s="66"/>
-    </row>
-    <row r="88" spans="1:11" s="62" customFormat="1">
-      <c r="A88" s="66"/>
-      <c r="H88" s="66"/>
-      <c r="I88" s="66"/>
-      <c r="J88" s="66"/>
-      <c r="K88" s="66"/>
-    </row>
-    <row r="89" spans="1:11" s="62" customFormat="1">
-      <c r="A89" s="66"/>
-      <c r="H89" s="66"/>
-      <c r="I89" s="66"/>
-      <c r="J89" s="66"/>
-      <c r="K89" s="66"/>
-    </row>
-    <row r="90" spans="1:11" s="62" customFormat="1">
-      <c r="A90" s="66"/>
-      <c r="H90" s="66"/>
-      <c r="I90" s="66"/>
-      <c r="J90" s="66"/>
-      <c r="K90" s="66"/>
-    </row>
-    <row r="91" spans="1:11" s="62" customFormat="1">
-      <c r="A91" s="66"/>
-      <c r="H91" s="66"/>
-      <c r="I91" s="66"/>
-      <c r="J91" s="66"/>
-      <c r="K91" s="66"/>
-    </row>
-    <row r="92" spans="1:11" s="62" customFormat="1">
-      <c r="A92" s="66"/>
-      <c r="H92" s="66"/>
-      <c r="I92" s="66"/>
-      <c r="J92" s="66"/>
-      <c r="K92" s="66"/>
-    </row>
-    <row r="93" spans="1:11" s="62" customFormat="1">
-      <c r="A93" s="66"/>
-      <c r="H93" s="66"/>
-      <c r="I93" s="66"/>
-      <c r="J93" s="66"/>
-      <c r="K93" s="66"/>
-    </row>
-    <row r="94" spans="1:11" s="62" customFormat="1">
-      <c r="A94" s="66"/>
-      <c r="H94" s="66"/>
-      <c r="I94" s="66"/>
-      <c r="J94" s="66"/>
-      <c r="K94" s="66"/>
+      <c r="I73" s="50"/>
+      <c r="J73" s="48"/>
+      <c r="K73" s="152"/>
+    </row>
+    <row r="74" spans="1:11" s="60" customFormat="1">
+      <c r="A74" s="64"/>
+      <c r="H74" s="64"/>
+      <c r="I74" s="64"/>
+      <c r="J74" s="64"/>
+      <c r="K74" s="64"/>
+    </row>
+    <row r="75" spans="1:11" s="60" customFormat="1">
+      <c r="A75" s="64"/>
+      <c r="H75" s="64"/>
+      <c r="I75" s="64"/>
+      <c r="J75" s="64"/>
+      <c r="K75" s="64"/>
+    </row>
+    <row r="76" spans="1:11" s="60" customFormat="1">
+      <c r="A76" s="64"/>
+      <c r="H76" s="64"/>
+      <c r="I76" s="64"/>
+      <c r="J76" s="64"/>
+      <c r="K76" s="64"/>
+    </row>
+    <row r="77" spans="1:11" s="60" customFormat="1">
+      <c r="A77" s="64"/>
+      <c r="H77" s="64"/>
+      <c r="I77" s="64"/>
+      <c r="J77" s="64"/>
+      <c r="K77" s="64"/>
+    </row>
+    <row r="78" spans="1:11" s="60" customFormat="1">
+      <c r="A78" s="64"/>
+      <c r="H78" s="64"/>
+      <c r="I78" s="64"/>
+      <c r="J78" s="64"/>
+      <c r="K78" s="64"/>
+    </row>
+    <row r="79" spans="1:11" s="60" customFormat="1">
+      <c r="A79" s="64"/>
+      <c r="H79" s="64"/>
+      <c r="I79" s="64"/>
+      <c r="J79" s="64"/>
+      <c r="K79" s="64"/>
+    </row>
+    <row r="80" spans="1:11" s="60" customFormat="1">
+      <c r="A80" s="64"/>
+      <c r="H80" s="64"/>
+      <c r="I80" s="64"/>
+      <c r="J80" s="64"/>
+      <c r="K80" s="64"/>
+    </row>
+    <row r="81" spans="1:11" s="60" customFormat="1">
+      <c r="A81" s="64"/>
+      <c r="H81" s="64"/>
+      <c r="I81" s="64"/>
+      <c r="J81" s="64"/>
+      <c r="K81" s="64"/>
+    </row>
+    <row r="82" spans="1:11" s="60" customFormat="1">
+      <c r="A82" s="64"/>
+      <c r="H82" s="64"/>
+      <c r="I82" s="64"/>
+      <c r="J82" s="64"/>
+      <c r="K82" s="64"/>
+    </row>
+    <row r="83" spans="1:11" s="60" customFormat="1">
+      <c r="A83" s="64"/>
+      <c r="H83" s="64"/>
+      <c r="I83" s="64"/>
+      <c r="J83" s="64"/>
+      <c r="K83" s="64"/>
+    </row>
+    <row r="84" spans="1:11" s="60" customFormat="1">
+      <c r="A84" s="64"/>
+      <c r="H84" s="64"/>
+      <c r="I84" s="64"/>
+      <c r="J84" s="64"/>
+      <c r="K84" s="64"/>
+    </row>
+    <row r="85" spans="1:11" s="60" customFormat="1">
+      <c r="A85" s="64"/>
+      <c r="H85" s="64"/>
+      <c r="I85" s="64"/>
+      <c r="J85" s="64"/>
+      <c r="K85" s="64"/>
+    </row>
+    <row r="86" spans="1:11" s="60" customFormat="1">
+      <c r="A86" s="64"/>
+      <c r="H86" s="64"/>
+      <c r="I86" s="64"/>
+      <c r="J86" s="64"/>
+      <c r="K86" s="64"/>
+    </row>
+    <row r="87" spans="1:11" s="60" customFormat="1">
+      <c r="A87" s="64"/>
+      <c r="H87" s="64"/>
+      <c r="I87" s="64"/>
+      <c r="J87" s="64"/>
+      <c r="K87" s="64"/>
+    </row>
+    <row r="88" spans="1:11" s="60" customFormat="1">
+      <c r="A88" s="64"/>
+      <c r="H88" s="64"/>
+      <c r="I88" s="64"/>
+      <c r="J88" s="64"/>
+      <c r="K88" s="64"/>
+    </row>
+    <row r="89" spans="1:11" s="60" customFormat="1">
+      <c r="A89" s="64"/>
+      <c r="H89" s="64"/>
+      <c r="I89" s="64"/>
+      <c r="J89" s="64"/>
+      <c r="K89" s="64"/>
+    </row>
+    <row r="90" spans="1:11" s="60" customFormat="1">
+      <c r="A90" s="64"/>
+      <c r="H90" s="64"/>
+      <c r="I90" s="64"/>
+      <c r="J90" s="64"/>
+      <c r="K90" s="64"/>
+    </row>
+    <row r="91" spans="1:11" s="60" customFormat="1">
+      <c r="A91" s="64"/>
+      <c r="H91" s="64"/>
+      <c r="I91" s="64"/>
+      <c r="J91" s="64"/>
+      <c r="K91" s="64"/>
+    </row>
+    <row r="92" spans="1:11" s="60" customFormat="1">
+      <c r="A92" s="64"/>
+      <c r="H92" s="64"/>
+      <c r="I92" s="64"/>
+      <c r="J92" s="64"/>
+      <c r="K92" s="64"/>
+    </row>
+    <row r="93" spans="1:11" s="60" customFormat="1">
+      <c r="A93" s="64"/>
+      <c r="H93" s="64"/>
+      <c r="I93" s="64"/>
+      <c r="J93" s="64"/>
+      <c r="K93" s="64"/>
+    </row>
+    <row r="94" spans="1:11" s="60" customFormat="1">
+      <c r="A94" s="64"/>
+      <c r="H94" s="64"/>
+      <c r="I94" s="64"/>
+      <c r="J94" s="64"/>
+      <c r="K94" s="64"/>
     </row>
     <row r="95" spans="1:11">
-      <c r="A95" s="66"/>
-      <c r="B95" s="62"/>
-      <c r="C95" s="62"/>
-      <c r="D95" s="62"/>
-      <c r="E95" s="62"/>
-      <c r="F95" s="62"/>
-      <c r="G95" s="62"/>
-      <c r="H95" s="66"/>
-      <c r="I95" s="66"/>
-      <c r="J95" s="66"/>
-      <c r="K95" s="66"/>
+      <c r="A95" s="64"/>
+      <c r="B95" s="60"/>
+      <c r="C95" s="60"/>
+      <c r="D95" s="60"/>
+      <c r="E95" s="60"/>
+      <c r="F95" s="60"/>
+      <c r="G95" s="60"/>
+      <c r="H95" s="64"/>
+      <c r="I95" s="64"/>
+      <c r="J95" s="64"/>
+      <c r="K95" s="64"/>
     </row>
     <row r="96" spans="1:11">
-      <c r="A96" s="66"/>
-      <c r="B96" s="62"/>
-      <c r="C96" s="62"/>
-      <c r="D96" s="62"/>
-      <c r="E96" s="62"/>
-      <c r="F96" s="62"/>
-      <c r="G96" s="62"/>
-      <c r="H96" s="66"/>
-      <c r="I96" s="66"/>
-      <c r="J96" s="66"/>
-      <c r="K96" s="66"/>
+      <c r="A96" s="64"/>
+      <c r="B96" s="60"/>
+      <c r="C96" s="60"/>
+      <c r="D96" s="60"/>
+      <c r="E96" s="60"/>
+      <c r="F96" s="60"/>
+      <c r="G96" s="60"/>
+      <c r="H96" s="64"/>
+      <c r="I96" s="64"/>
+      <c r="J96" s="64"/>
+      <c r="K96" s="64"/>
     </row>
     <row r="97" spans="1:11">
-      <c r="A97" s="66"/>
-      <c r="B97" s="62"/>
-      <c r="C97" s="62"/>
-      <c r="D97" s="62"/>
-      <c r="E97" s="62"/>
-      <c r="F97" s="62"/>
-      <c r="G97" s="62"/>
-      <c r="H97" s="66"/>
-      <c r="I97" s="66"/>
-      <c r="J97" s="66"/>
-      <c r="K97" s="66"/>
+      <c r="A97" s="64"/>
+      <c r="B97" s="60"/>
+      <c r="C97" s="60"/>
+      <c r="D97" s="60"/>
+      <c r="E97" s="60"/>
+      <c r="F97" s="60"/>
+      <c r="G97" s="60"/>
+      <c r="H97" s="64"/>
+      <c r="I97" s="64"/>
+      <c r="J97" s="64"/>
+      <c r="K97" s="64"/>
     </row>
     <row r="98" spans="1:11">
-      <c r="A98" s="66"/>
-      <c r="B98" s="62"/>
-      <c r="C98" s="62"/>
-      <c r="D98" s="62"/>
-      <c r="E98" s="62"/>
-      <c r="F98" s="62"/>
-      <c r="G98" s="62"/>
-      <c r="H98" s="66"/>
-      <c r="I98" s="66"/>
-      <c r="J98" s="66"/>
-      <c r="K98" s="66"/>
+      <c r="A98" s="64"/>
+      <c r="B98" s="60"/>
+      <c r="C98" s="60"/>
+      <c r="D98" s="60"/>
+      <c r="E98" s="60"/>
+      <c r="F98" s="60"/>
+      <c r="G98" s="60"/>
+      <c r="H98" s="64"/>
+      <c r="I98" s="64"/>
+      <c r="J98" s="64"/>
+      <c r="K98" s="64"/>
     </row>
     <row r="99" spans="1:11">
-      <c r="A99" s="66"/>
-      <c r="B99" s="62"/>
-      <c r="C99" s="62"/>
-      <c r="D99" s="62"/>
-      <c r="E99" s="62"/>
-      <c r="F99" s="62"/>
-      <c r="G99" s="62"/>
-      <c r="H99" s="66"/>
-      <c r="I99" s="66"/>
-      <c r="J99" s="66"/>
-      <c r="K99" s="66"/>
+      <c r="A99" s="64"/>
+      <c r="B99" s="60"/>
+      <c r="C99" s="60"/>
+      <c r="D99" s="60"/>
+      <c r="E99" s="60"/>
+      <c r="F99" s="60"/>
+      <c r="G99" s="60"/>
+      <c r="H99" s="64"/>
+      <c r="I99" s="64"/>
+      <c r="J99" s="64"/>
+      <c r="K99" s="64"/>
     </row>
     <row r="100" spans="1:11">
-      <c r="A100" s="66"/>
-      <c r="B100" s="62"/>
-      <c r="C100" s="62"/>
-      <c r="D100" s="62"/>
-      <c r="E100" s="62"/>
-      <c r="F100" s="62"/>
-      <c r="G100" s="62"/>
-      <c r="H100" s="66"/>
-      <c r="I100" s="66"/>
-      <c r="J100" s="66"/>
-      <c r="K100" s="66"/>
+      <c r="A100" s="64"/>
+      <c r="B100" s="60"/>
+      <c r="C100" s="60"/>
+      <c r="D100" s="60"/>
+      <c r="E100" s="60"/>
+      <c r="F100" s="60"/>
+      <c r="G100" s="60"/>
+      <c r="H100" s="64"/>
+      <c r="I100" s="64"/>
+      <c r="J100" s="64"/>
+      <c r="K100" s="64"/>
     </row>
     <row r="101" spans="1:11">
-      <c r="A101" s="66"/>
-      <c r="B101" s="62"/>
-      <c r="C101" s="62"/>
-      <c r="D101" s="62"/>
-      <c r="E101" s="62"/>
-      <c r="F101" s="62"/>
-      <c r="G101" s="62"/>
-      <c r="H101" s="66"/>
-      <c r="I101" s="66"/>
-      <c r="J101" s="66"/>
-      <c r="K101" s="66"/>
+      <c r="A101" s="64"/>
+      <c r="B101" s="60"/>
+      <c r="C101" s="60"/>
+      <c r="D101" s="60"/>
+      <c r="E101" s="60"/>
+      <c r="F101" s="60"/>
+      <c r="G101" s="60"/>
+      <c r="H101" s="64"/>
+      <c r="I101" s="64"/>
+      <c r="J101" s="64"/>
+      <c r="K101" s="64"/>
     </row>
     <row r="102" spans="1:11">
-      <c r="A102" s="66"/>
-      <c r="B102" s="62"/>
-      <c r="C102" s="62"/>
-      <c r="D102" s="62"/>
-      <c r="E102" s="62"/>
-      <c r="F102" s="62"/>
-      <c r="G102" s="62"/>
-      <c r="H102" s="66"/>
-      <c r="I102" s="66"/>
-      <c r="J102" s="66"/>
-      <c r="K102" s="66"/>
+      <c r="A102" s="64"/>
+      <c r="B102" s="60"/>
+      <c r="C102" s="60"/>
+      <c r="D102" s="60"/>
+      <c r="E102" s="60"/>
+      <c r="F102" s="60"/>
+      <c r="G102" s="60"/>
+      <c r="H102" s="64"/>
+      <c r="I102" s="64"/>
+      <c r="J102" s="64"/>
+      <c r="K102" s="64"/>
     </row>
     <row r="103" spans="1:11">
-      <c r="A103" s="66"/>
-      <c r="B103" s="62"/>
-      <c r="C103" s="62"/>
-      <c r="D103" s="62"/>
-      <c r="E103" s="62"/>
-      <c r="F103" s="62"/>
-      <c r="G103" s="62"/>
-      <c r="H103" s="66"/>
-      <c r="I103" s="66"/>
-      <c r="J103" s="66"/>
-      <c r="K103" s="66"/>
+      <c r="A103" s="64"/>
+      <c r="B103" s="60"/>
+      <c r="C103" s="60"/>
+      <c r="D103" s="60"/>
+      <c r="E103" s="60"/>
+      <c r="F103" s="60"/>
+      <c r="G103" s="60"/>
+      <c r="H103" s="64"/>
+      <c r="I103" s="64"/>
+      <c r="J103" s="64"/>
+      <c r="K103" s="64"/>
     </row>
     <row r="104" spans="1:11">
-      <c r="A104" s="66"/>
-      <c r="B104" s="62"/>
-      <c r="C104" s="62"/>
-      <c r="D104" s="62"/>
-      <c r="E104" s="62"/>
-      <c r="F104" s="62"/>
-      <c r="G104" s="62"/>
-      <c r="H104" s="66"/>
-      <c r="I104" s="66"/>
-      <c r="J104" s="66"/>
-      <c r="K104" s="66"/>
+      <c r="A104" s="64"/>
+      <c r="B104" s="60"/>
+      <c r="C104" s="60"/>
+      <c r="D104" s="60"/>
+      <c r="E104" s="60"/>
+      <c r="F104" s="60"/>
+      <c r="G104" s="60"/>
+      <c r="H104" s="64"/>
+      <c r="I104" s="64"/>
+      <c r="J104" s="64"/>
+      <c r="K104" s="64"/>
     </row>
     <row r="105" spans="1:11">
-      <c r="A105" s="66"/>
-      <c r="B105" s="62"/>
-      <c r="C105" s="62"/>
-      <c r="D105" s="62"/>
-      <c r="E105" s="62"/>
-      <c r="F105" s="62"/>
-      <c r="G105" s="62"/>
-      <c r="H105" s="66"/>
-      <c r="I105" s="66"/>
-      <c r="J105" s="66"/>
-      <c r="K105" s="66"/>
+      <c r="A105" s="64"/>
+      <c r="B105" s="60"/>
+      <c r="C105" s="60"/>
+      <c r="D105" s="60"/>
+      <c r="E105" s="60"/>
+      <c r="F105" s="60"/>
+      <c r="G105" s="60"/>
+      <c r="H105" s="64"/>
+      <c r="I105" s="64"/>
+      <c r="J105" s="64"/>
+      <c r="K105" s="64"/>
     </row>
     <row r="106" spans="1:11">
-      <c r="A106" s="66"/>
-      <c r="B106" s="62"/>
-      <c r="C106" s="62"/>
-      <c r="D106" s="62"/>
-      <c r="E106" s="62"/>
-      <c r="F106" s="62"/>
-      <c r="G106" s="62"/>
-      <c r="H106" s="66"/>
-      <c r="I106" s="66"/>
-      <c r="J106" s="66"/>
-      <c r="K106" s="66"/>
+      <c r="A106" s="64"/>
+      <c r="B106" s="60"/>
+      <c r="C106" s="60"/>
+      <c r="D106" s="60"/>
+      <c r="E106" s="60"/>
+      <c r="F106" s="60"/>
+      <c r="G106" s="60"/>
+      <c r="H106" s="64"/>
+      <c r="I106" s="64"/>
+      <c r="J106" s="64"/>
+      <c r="K106" s="64"/>
     </row>
     <row r="107" spans="1:11">
-      <c r="A107" s="66"/>
-      <c r="B107" s="62"/>
-      <c r="C107" s="62"/>
-      <c r="D107" s="62"/>
-      <c r="E107" s="62"/>
-      <c r="F107" s="62"/>
-      <c r="G107" s="62"/>
-      <c r="H107" s="66"/>
-      <c r="I107" s="66"/>
-      <c r="J107" s="66"/>
-      <c r="K107" s="66"/>
+      <c r="A107" s="64"/>
+      <c r="B107" s="60"/>
+      <c r="C107" s="60"/>
+      <c r="D107" s="60"/>
+      <c r="E107" s="60"/>
+      <c r="F107" s="60"/>
+      <c r="G107" s="60"/>
+      <c r="H107" s="64"/>
+      <c r="I107" s="64"/>
+      <c r="J107" s="64"/>
+      <c r="K107" s="64"/>
     </row>
     <row r="108" spans="1:11">
-      <c r="A108" s="66"/>
-      <c r="B108" s="62"/>
-      <c r="C108" s="62"/>
-      <c r="D108" s="62"/>
-      <c r="E108" s="62"/>
-      <c r="F108" s="62"/>
-      <c r="G108" s="62"/>
-      <c r="H108" s="66"/>
-      <c r="I108" s="66"/>
-      <c r="J108" s="66"/>
-      <c r="K108" s="66"/>
+      <c r="A108" s="64"/>
+      <c r="B108" s="60"/>
+      <c r="C108" s="60"/>
+      <c r="D108" s="60"/>
+      <c r="E108" s="60"/>
+      <c r="F108" s="60"/>
+      <c r="G108" s="60"/>
+      <c r="H108" s="64"/>
+      <c r="I108" s="64"/>
+      <c r="J108" s="64"/>
+      <c r="K108" s="64"/>
     </row>
     <row r="109" spans="1:11">
-      <c r="A109" s="66"/>
-      <c r="B109" s="62"/>
-      <c r="C109" s="62"/>
-      <c r="D109" s="62"/>
-      <c r="E109" s="62"/>
-      <c r="F109" s="62"/>
-      <c r="G109" s="62"/>
-      <c r="H109" s="66"/>
-      <c r="I109" s="66"/>
-      <c r="J109" s="66"/>
-      <c r="K109" s="66"/>
+      <c r="A109" s="64"/>
+      <c r="B109" s="60"/>
+      <c r="C109" s="60"/>
+      <c r="D109" s="60"/>
+      <c r="E109" s="60"/>
+      <c r="F109" s="60"/>
+      <c r="G109" s="60"/>
+      <c r="H109" s="64"/>
+      <c r="I109" s="64"/>
+      <c r="J109" s="64"/>
+      <c r="K109" s="64"/>
     </row>
     <row r="110" spans="1:11">
-      <c r="A110" s="66"/>
-      <c r="B110" s="62"/>
-      <c r="C110" s="62"/>
-      <c r="D110" s="62"/>
-      <c r="E110" s="62"/>
-      <c r="F110" s="62"/>
-      <c r="G110" s="62"/>
-      <c r="H110" s="66"/>
-      <c r="I110" s="66"/>
-      <c r="J110" s="66"/>
-      <c r="K110" s="66"/>
+      <c r="A110" s="64"/>
+      <c r="B110" s="60"/>
+      <c r="C110" s="60"/>
+      <c r="D110" s="60"/>
+      <c r="E110" s="60"/>
+      <c r="F110" s="60"/>
+      <c r="G110" s="60"/>
+      <c r="H110" s="64"/>
+      <c r="I110" s="64"/>
+      <c r="J110" s="64"/>
+      <c r="K110" s="64"/>
     </row>
     <row r="111" spans="1:11">
-      <c r="A111" s="66"/>
-      <c r="B111" s="62"/>
-      <c r="C111" s="62"/>
-      <c r="D111" s="62"/>
-      <c r="E111" s="62"/>
-      <c r="F111" s="62"/>
-      <c r="G111" s="62"/>
-      <c r="H111" s="66"/>
-      <c r="I111" s="66"/>
-      <c r="J111" s="66"/>
-      <c r="K111" s="66"/>
+      <c r="A111" s="64"/>
+      <c r="B111" s="60"/>
+      <c r="C111" s="60"/>
+      <c r="D111" s="60"/>
+      <c r="E111" s="60"/>
+      <c r="F111" s="60"/>
+      <c r="G111" s="60"/>
+      <c r="H111" s="64"/>
+      <c r="I111" s="64"/>
+      <c r="J111" s="64"/>
+      <c r="K111" s="64"/>
     </row>
     <row r="112" spans="1:11">
-      <c r="A112" s="66"/>
-      <c r="B112" s="62"/>
-      <c r="C112" s="62"/>
-      <c r="D112" s="62"/>
-      <c r="E112" s="62"/>
-      <c r="F112" s="62"/>
-      <c r="G112" s="62"/>
-      <c r="H112" s="66"/>
-      <c r="I112" s="66"/>
-      <c r="J112" s="66"/>
-      <c r="K112" s="66"/>
+      <c r="A112" s="64"/>
+      <c r="B112" s="60"/>
+      <c r="C112" s="60"/>
+      <c r="D112" s="60"/>
+      <c r="E112" s="60"/>
+      <c r="F112" s="60"/>
+      <c r="G112" s="60"/>
+      <c r="H112" s="64"/>
+      <c r="I112" s="64"/>
+      <c r="J112" s="64"/>
+      <c r="K112" s="64"/>
     </row>
     <row r="113" spans="1:11">
-      <c r="A113" s="66"/>
-      <c r="B113" s="62"/>
-      <c r="C113" s="62"/>
-      <c r="D113" s="62"/>
-      <c r="E113" s="62"/>
-      <c r="F113" s="62"/>
-      <c r="G113" s="62"/>
-      <c r="H113" s="66"/>
-      <c r="I113" s="66"/>
-      <c r="J113" s="66"/>
-      <c r="K113" s="66"/>
+      <c r="A113" s="64"/>
+      <c r="B113" s="60"/>
+      <c r="C113" s="60"/>
+      <c r="D113" s="60"/>
+      <c r="E113" s="60"/>
+      <c r="F113" s="60"/>
+      <c r="G113" s="60"/>
+      <c r="H113" s="64"/>
+      <c r="I113" s="64"/>
+      <c r="J113" s="64"/>
+      <c r="K113" s="64"/>
     </row>
     <row r="114" spans="1:11">
-      <c r="A114" s="66"/>
-      <c r="B114" s="62"/>
-      <c r="C114" s="62"/>
-      <c r="D114" s="62"/>
-      <c r="E114" s="62"/>
-      <c r="F114" s="62"/>
-      <c r="G114" s="62"/>
-      <c r="H114" s="66"/>
-      <c r="I114" s="66"/>
-      <c r="J114" s="66"/>
-      <c r="K114" s="66"/>
+      <c r="A114" s="64"/>
+      <c r="B114" s="60"/>
+      <c r="C114" s="60"/>
+      <c r="D114" s="60"/>
+      <c r="E114" s="60"/>
+      <c r="F114" s="60"/>
+      <c r="G114" s="60"/>
+      <c r="H114" s="64"/>
+      <c r="I114" s="64"/>
+      <c r="J114" s="64"/>
+      <c r="K114" s="64"/>
     </row>
     <row r="115" spans="1:11">
-      <c r="A115" s="66"/>
-      <c r="B115" s="62"/>
-      <c r="C115" s="62"/>
-      <c r="D115" s="62"/>
-      <c r="E115" s="62"/>
-      <c r="F115" s="62"/>
-      <c r="G115" s="62"/>
-      <c r="H115" s="66"/>
-      <c r="I115" s="66"/>
-      <c r="J115" s="66"/>
-      <c r="K115" s="66"/>
+      <c r="A115" s="64"/>
+      <c r="B115" s="60"/>
+      <c r="C115" s="60"/>
+      <c r="D115" s="60"/>
+      <c r="E115" s="60"/>
+      <c r="F115" s="60"/>
+      <c r="G115" s="60"/>
+      <c r="H115" s="64"/>
+      <c r="I115" s="64"/>
+      <c r="J115" s="64"/>
+      <c r="K115" s="64"/>
     </row>
     <row r="116" spans="1:11">
-      <c r="A116" s="66"/>
-      <c r="B116" s="62"/>
-      <c r="C116" s="62"/>
-      <c r="D116" s="62"/>
-      <c r="E116" s="62"/>
-      <c r="F116" s="62"/>
-      <c r="G116" s="62"/>
-      <c r="H116" s="66"/>
-      <c r="I116" s="66"/>
-      <c r="J116" s="66"/>
-      <c r="K116" s="66"/>
+      <c r="A116" s="64"/>
+      <c r="B116" s="60"/>
+      <c r="C116" s="60"/>
+      <c r="D116" s="60"/>
+      <c r="E116" s="60"/>
+      <c r="F116" s="60"/>
+      <c r="G116" s="60"/>
+      <c r="H116" s="64"/>
+      <c r="I116" s="64"/>
+      <c r="J116" s="64"/>
+      <c r="K116" s="64"/>
     </row>
     <row r="117" spans="1:11">
-      <c r="A117" s="66"/>
-      <c r="B117" s="62"/>
-      <c r="C117" s="62"/>
-      <c r="D117" s="62"/>
-      <c r="E117" s="62"/>
-      <c r="F117" s="62"/>
-      <c r="G117" s="62"/>
-      <c r="H117" s="66"/>
-      <c r="I117" s="66"/>
-      <c r="J117" s="66"/>
-      <c r="K117" s="66"/>
+      <c r="A117" s="64"/>
+      <c r="B117" s="60"/>
+      <c r="C117" s="60"/>
+      <c r="D117" s="60"/>
+      <c r="E117" s="60"/>
+      <c r="F117" s="60"/>
+      <c r="G117" s="60"/>
+      <c r="H117" s="64"/>
+      <c r="I117" s="64"/>
+      <c r="J117" s="64"/>
+      <c r="K117" s="64"/>
     </row>
     <row r="118" spans="1:11">
-      <c r="A118" s="66"/>
-      <c r="B118" s="62"/>
-      <c r="C118" s="62"/>
-      <c r="D118" s="62"/>
-      <c r="E118" s="62"/>
-      <c r="F118" s="62"/>
-      <c r="G118" s="62"/>
-      <c r="H118" s="66"/>
-      <c r="I118" s="66"/>
-      <c r="J118" s="66"/>
-      <c r="K118" s="66"/>
+      <c r="A118" s="64"/>
+      <c r="B118" s="60"/>
+      <c r="C118" s="60"/>
+      <c r="D118" s="60"/>
+      <c r="E118" s="60"/>
+      <c r="F118" s="60"/>
+      <c r="G118" s="60"/>
+      <c r="H118" s="64"/>
+      <c r="I118" s="64"/>
+      <c r="J118" s="64"/>
+      <c r="K118" s="64"/>
     </row>
     <row r="119" spans="1:11">
-      <c r="A119" s="66"/>
-      <c r="B119" s="62"/>
-      <c r="C119" s="62"/>
-      <c r="D119" s="62"/>
-      <c r="E119" s="62"/>
-      <c r="F119" s="62"/>
-      <c r="G119" s="62"/>
-      <c r="H119" s="66"/>
-      <c r="I119" s="66"/>
-      <c r="J119" s="66"/>
-      <c r="K119" s="66"/>
+      <c r="A119" s="64"/>
+      <c r="B119" s="60"/>
+      <c r="C119" s="60"/>
+      <c r="D119" s="60"/>
+      <c r="E119" s="60"/>
+      <c r="F119" s="60"/>
+      <c r="G119" s="60"/>
+      <c r="H119" s="64"/>
+      <c r="I119" s="64"/>
+      <c r="J119" s="64"/>
+      <c r="K119" s="64"/>
     </row>
     <row r="120" spans="1:11">
-      <c r="A120" s="66"/>
-      <c r="B120" s="62"/>
-      <c r="C120" s="62"/>
-      <c r="D120" s="62"/>
-      <c r="E120" s="62"/>
-      <c r="F120" s="62"/>
-      <c r="G120" s="62"/>
-      <c r="H120" s="66"/>
-      <c r="I120" s="66"/>
-      <c r="J120" s="66"/>
-      <c r="K120" s="66"/>
+      <c r="A120" s="64"/>
+      <c r="B120" s="60"/>
+      <c r="C120" s="60"/>
+      <c r="D120" s="60"/>
+      <c r="E120" s="60"/>
+      <c r="F120" s="60"/>
+      <c r="G120" s="60"/>
+      <c r="H120" s="64"/>
+      <c r="I120" s="64"/>
+      <c r="J120" s="64"/>
+      <c r="K120" s="64"/>
     </row>
     <row r="121" spans="1:11">
-      <c r="A121" s="66"/>
-      <c r="B121" s="62"/>
-      <c r="C121" s="62"/>
-      <c r="D121" s="62"/>
-      <c r="E121" s="62"/>
-      <c r="F121" s="62"/>
-      <c r="G121" s="62"/>
-      <c r="H121" s="66"/>
-      <c r="I121" s="66"/>
-      <c r="J121" s="66"/>
-      <c r="K121" s="66"/>
+      <c r="A121" s="64"/>
+      <c r="B121" s="60"/>
+      <c r="C121" s="60"/>
+      <c r="D121" s="60"/>
+      <c r="E121" s="60"/>
+      <c r="F121" s="60"/>
+      <c r="G121" s="60"/>
+      <c r="H121" s="64"/>
+      <c r="I121" s="64"/>
+      <c r="J121" s="64"/>
+      <c r="K121" s="64"/>
     </row>
     <row r="122" spans="1:11">
-      <c r="A122" s="66"/>
-      <c r="B122" s="62"/>
-      <c r="C122" s="62"/>
-      <c r="D122" s="62"/>
-      <c r="E122" s="62"/>
-      <c r="F122" s="62"/>
-      <c r="G122" s="62"/>
-      <c r="H122" s="66"/>
-      <c r="I122" s="66"/>
-      <c r="J122" s="66"/>
-      <c r="K122" s="66"/>
+      <c r="A122" s="64"/>
+      <c r="B122" s="60"/>
+      <c r="C122" s="60"/>
+      <c r="D122" s="60"/>
+      <c r="E122" s="60"/>
+      <c r="F122" s="60"/>
+      <c r="G122" s="60"/>
+      <c r="H122" s="64"/>
+      <c r="I122" s="64"/>
+      <c r="J122" s="64"/>
+      <c r="K122" s="64"/>
     </row>
     <row r="123" spans="1:11">
-      <c r="A123" s="66"/>
-      <c r="B123" s="62"/>
-      <c r="C123" s="62"/>
-      <c r="D123" s="62"/>
-      <c r="E123" s="62"/>
-      <c r="F123" s="62"/>
-      <c r="G123" s="62"/>
-      <c r="H123" s="66"/>
-      <c r="I123" s="66"/>
-      <c r="J123" s="66"/>
-      <c r="K123" s="66"/>
+      <c r="A123" s="64"/>
+      <c r="B123" s="60"/>
+      <c r="C123" s="60"/>
+      <c r="D123" s="60"/>
+      <c r="E123" s="60"/>
+      <c r="F123" s="60"/>
+      <c r="G123" s="60"/>
+      <c r="H123" s="64"/>
+      <c r="I123" s="64"/>
+      <c r="J123" s="64"/>
+      <c r="K123" s="64"/>
     </row>
     <row r="124" spans="1:11">
-      <c r="A124" s="66"/>
-      <c r="B124" s="62"/>
-      <c r="C124" s="62"/>
-      <c r="D124" s="62"/>
-      <c r="E124" s="62"/>
-      <c r="F124" s="62"/>
-      <c r="G124" s="62"/>
-      <c r="H124" s="66"/>
-      <c r="I124" s="66"/>
-      <c r="J124" s="66"/>
-      <c r="K124" s="66"/>
+      <c r="A124" s="64"/>
+      <c r="B124" s="60"/>
+      <c r="C124" s="60"/>
+      <c r="D124" s="60"/>
+      <c r="E124" s="60"/>
+      <c r="F124" s="60"/>
+      <c r="G124" s="60"/>
+      <c r="H124" s="64"/>
+      <c r="I124" s="64"/>
+      <c r="J124" s="64"/>
+      <c r="K124" s="64"/>
     </row>
     <row r="125" spans="1:11">
-      <c r="A125" s="66"/>
-      <c r="B125" s="62"/>
-      <c r="C125" s="62"/>
-      <c r="D125" s="62"/>
-      <c r="E125" s="62"/>
-      <c r="F125" s="62"/>
-      <c r="G125" s="62"/>
-      <c r="H125" s="66"/>
-      <c r="I125" s="66"/>
-      <c r="J125" s="66"/>
-      <c r="K125" s="66"/>
+      <c r="A125" s="64"/>
+      <c r="B125" s="60"/>
+      <c r="C125" s="60"/>
+      <c r="D125" s="60"/>
+      <c r="E125" s="60"/>
+      <c r="F125" s="60"/>
+      <c r="G125" s="60"/>
+      <c r="H125" s="64"/>
+      <c r="I125" s="64"/>
+      <c r="J125" s="64"/>
+      <c r="K125" s="64"/>
     </row>
     <row r="126" spans="1:11">
-      <c r="A126" s="66"/>
-      <c r="B126" s="62"/>
-      <c r="C126" s="62"/>
-      <c r="D126" s="62"/>
-      <c r="E126" s="62"/>
-      <c r="F126" s="62"/>
-      <c r="G126" s="62"/>
-      <c r="H126" s="66"/>
-      <c r="I126" s="66"/>
-      <c r="J126" s="66"/>
-      <c r="K126" s="66"/>
+      <c r="A126" s="64"/>
+      <c r="B126" s="60"/>
+      <c r="C126" s="60"/>
+      <c r="D126" s="60"/>
+      <c r="E126" s="60"/>
+      <c r="F126" s="60"/>
+      <c r="G126" s="60"/>
+      <c r="H126" s="64"/>
+      <c r="I126" s="64"/>
+      <c r="J126" s="64"/>
+      <c r="K126" s="64"/>
     </row>
     <row r="127" spans="1:11">
-      <c r="A127" s="66"/>
-      <c r="B127" s="62"/>
-      <c r="C127" s="62"/>
-      <c r="D127" s="62"/>
-      <c r="E127" s="62"/>
-      <c r="F127" s="62"/>
-      <c r="G127" s="62"/>
-      <c r="H127" s="66"/>
-      <c r="I127" s="66"/>
-      <c r="J127" s="66"/>
-      <c r="K127" s="66"/>
+      <c r="A127" s="64"/>
+      <c r="B127" s="60"/>
+      <c r="C127" s="60"/>
+      <c r="D127" s="60"/>
+      <c r="E127" s="60"/>
+      <c r="F127" s="60"/>
+      <c r="G127" s="60"/>
+      <c r="H127" s="64"/>
+      <c r="I127" s="64"/>
+      <c r="J127" s="64"/>
+      <c r="K127" s="64"/>
     </row>
     <row r="128" spans="1:11">
-      <c r="A128" s="66"/>
-      <c r="B128" s="62"/>
-      <c r="C128" s="62"/>
-      <c r="D128" s="62"/>
-      <c r="E128" s="62"/>
-      <c r="F128" s="62"/>
-      <c r="G128" s="62"/>
-      <c r="H128" s="66"/>
-      <c r="I128" s="66"/>
-      <c r="J128" s="66"/>
-      <c r="K128" s="66"/>
+      <c r="A128" s="64"/>
+      <c r="B128" s="60"/>
+      <c r="C128" s="60"/>
+      <c r="D128" s="60"/>
+      <c r="E128" s="60"/>
+      <c r="F128" s="60"/>
+      <c r="G128" s="60"/>
+      <c r="H128" s="64"/>
+      <c r="I128" s="64"/>
+      <c r="J128" s="64"/>
+      <c r="K128" s="64"/>
     </row>
     <row r="129" spans="1:11">
-      <c r="A129" s="66"/>
-      <c r="B129" s="62"/>
-      <c r="C129" s="62"/>
-      <c r="D129" s="62"/>
-      <c r="E129" s="62"/>
-      <c r="F129" s="62"/>
-      <c r="G129" s="62"/>
-      <c r="H129" s="66"/>
-      <c r="I129" s="66"/>
-      <c r="J129" s="66"/>
-      <c r="K129" s="66"/>
+      <c r="A129" s="64"/>
+      <c r="B129" s="60"/>
+      <c r="C129" s="60"/>
+      <c r="D129" s="60"/>
+      <c r="E129" s="60"/>
+      <c r="F129" s="60"/>
+      <c r="G129" s="60"/>
+      <c r="H129" s="64"/>
+      <c r="I129" s="64"/>
+      <c r="J129" s="64"/>
+      <c r="K129" s="64"/>
     </row>
     <row r="130" spans="1:11">
-      <c r="A130" s="66"/>
-      <c r="B130" s="62"/>
-      <c r="C130" s="62"/>
-      <c r="D130" s="62"/>
-      <c r="E130" s="62"/>
-      <c r="F130" s="62"/>
-      <c r="G130" s="62"/>
-      <c r="H130" s="66"/>
-      <c r="I130" s="66"/>
-      <c r="J130" s="66"/>
-      <c r="K130" s="66"/>
+      <c r="A130" s="64"/>
+      <c r="B130" s="60"/>
+      <c r="C130" s="60"/>
+      <c r="D130" s="60"/>
+      <c r="E130" s="60"/>
+      <c r="F130" s="60"/>
+      <c r="G130" s="60"/>
+      <c r="H130" s="64"/>
+      <c r="I130" s="64"/>
+      <c r="J130" s="64"/>
+      <c r="K130" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="99">
-    <mergeCell ref="B9:C13"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="B45:C49"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="B15:C19"/>
-    <mergeCell ref="D15:E19"/>
-    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="B39:C43"/>
+    <mergeCell ref="D39:E43"/>
+    <mergeCell ref="F39:G43"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="K39:K43"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="K57:K61"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="B51:C55"/>
+    <mergeCell ref="D51:E55"/>
+    <mergeCell ref="F51:G55"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="K51:K55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="B21:C25"/>
+    <mergeCell ref="D21:E25"/>
+    <mergeCell ref="B63:C67"/>
+    <mergeCell ref="D63:E67"/>
+    <mergeCell ref="F63:G67"/>
+    <mergeCell ref="B57:C61"/>
+    <mergeCell ref="D57:E61"/>
+    <mergeCell ref="F57:G61"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="K21:K25"/>
+    <mergeCell ref="K15:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="F15:G19"/>
+    <mergeCell ref="F21:G25"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="K9:K13"/>
+    <mergeCell ref="K27:K31"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="K33:K37"/>
+    <mergeCell ref="D33:E37"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G37"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="K69:K73"/>
+    <mergeCell ref="F45:G49"/>
+    <mergeCell ref="K45:K49"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="K63:K67"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="H57:I57"/>
     <mergeCell ref="B69:C73"/>
     <mergeCell ref="D45:E49"/>
     <mergeCell ref="D69:E73"/>
@@ -5293,76 +5362,22 @@
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="B44:C44"/>
-    <mergeCell ref="K69:K73"/>
-    <mergeCell ref="F45:G49"/>
-    <mergeCell ref="K45:K49"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="K63:K67"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="K9:K13"/>
-    <mergeCell ref="K27:K31"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="K33:K37"/>
-    <mergeCell ref="D33:E37"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G37"/>
-    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C13"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="B45:C49"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="B15:C19"/>
+    <mergeCell ref="D15:E19"/>
+    <mergeCell ref="H15:I15"/>
     <mergeCell ref="H21:I21"/>
-    <mergeCell ref="K21:K25"/>
-    <mergeCell ref="K15:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="F15:G19"/>
-    <mergeCell ref="F21:G25"/>
     <mergeCell ref="F27:G31"/>
     <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="B21:C25"/>
-    <mergeCell ref="D21:E25"/>
-    <mergeCell ref="B63:C67"/>
-    <mergeCell ref="D63:E67"/>
-    <mergeCell ref="F63:G67"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="B57:C61"/>
-    <mergeCell ref="D57:E61"/>
-    <mergeCell ref="F57:G61"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="K39:K43"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="K57:K61"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="B51:C55"/>
-    <mergeCell ref="D51:E55"/>
-    <mergeCell ref="F51:G55"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="K51:K55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="B39:C43"/>
-    <mergeCell ref="D39:E43"/>
-    <mergeCell ref="F39:G43"/>
-    <mergeCell ref="H39:I39"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H69:I69">
